--- a/data/source/as-level/aslevel_2020_wa.xlsx
+++ b/data/source/as-level/aslevel_2020_wa.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://jointcouncilqualifications.sharepoint.com/sites/JCQData/Shared Documents/Operations/Results/Summer Exam Series/2020/Website Files/A Level and AS Results Summer 2020/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Results day\microsite\data\source\as-level\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_8DD41F641CB9C17D7B795C4B59E92EBD9329DBA7" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="19543" windowHeight="12497" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19545" windowHeight="12495"/>
   </bookViews>
   <sheets>
     <sheet name="Wales All Ages cum %" sheetId="1" r:id="rId1"/>
@@ -223,7 +222,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="###0"/>
     <numFmt numFmtId="165" formatCode="##0.0"/>
@@ -242,23 +241,28 @@
       <b/>
       <sz val="16"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <i/>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -367,7 +371,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -424,11 +428,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -744,17 +751,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:J296"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A274" workbookViewId="0">
-      <selection sqref="A1:J1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:XFD9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
@@ -762,78 +769,81 @@
     <col min="5" max="10" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-    </row>
-    <row r="3" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A3" s="19" t="s">
+    <row r="1" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+    </row>
+    <row r="3" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-    </row>
-    <row r="4" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="19" t="s">
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+    </row>
+    <row r="4" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-    </row>
-    <row r="5" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="6" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="19" t="s">
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+    </row>
+    <row r="5" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-    </row>
-    <row r="8" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="21" t="s">
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+    </row>
+    <row r="7" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="19"/>
+    </row>
+    <row r="8" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-    </row>
-    <row r="10" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+    </row>
+    <row r="10" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
@@ -846,16 +856,16 @@
       <c r="D10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="22" t="s">
+      <c r="E10" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
-    </row>
-    <row r="11" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+    </row>
+    <row r="11" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3" t="s">
@@ -883,7 +893,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>18</v>
       </c>
@@ -891,31 +901,31 @@
         <v>19</v>
       </c>
       <c r="C12" s="9">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="D12" s="13">
-        <v>3.0873570199412894</v>
+        <v>3.0941908084331868</v>
       </c>
       <c r="E12" s="11">
-        <v>17.377049180327869</v>
+        <v>22.385620915032682</v>
       </c>
       <c r="F12" s="11">
-        <v>43.442622950819668</v>
+        <v>50.653594771241828</v>
       </c>
       <c r="G12" s="11">
-        <v>69.508196721311478</v>
+        <v>81.045751633986924</v>
       </c>
       <c r="H12" s="11">
-        <v>86.229508196721312</v>
+        <v>95.098039215686271</v>
       </c>
       <c r="I12" s="11">
-        <v>95.73770491803279</v>
+        <v>99.346405228758172</v>
       </c>
       <c r="J12" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="15">
@@ -943,7 +953,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>20</v>
       </c>
@@ -951,31 +961,31 @@
         <v>21</v>
       </c>
       <c r="C14" s="9">
-        <v>1672</v>
+        <v>1673</v>
       </c>
       <c r="D14" s="13">
-        <v>6.5116641352182887</v>
+        <v>6.5112477621234524</v>
       </c>
       <c r="E14" s="11">
-        <v>28.289473684210524</v>
+        <v>35.98326359832636</v>
       </c>
       <c r="F14" s="11">
-        <v>60.406698564593299</v>
+        <v>68.977884040645549</v>
       </c>
       <c r="G14" s="11">
-        <v>84.389952153110045</v>
+        <v>91.093843395098631</v>
       </c>
       <c r="H14" s="11">
-        <v>94.078947368421055</v>
+        <v>97.728631201434553</v>
       </c>
       <c r="I14" s="11">
-        <v>98.444976076555022</v>
+        <v>99.701135684399276</v>
       </c>
       <c r="J14" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="15">
@@ -1003,7 +1013,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>20</v>
       </c>
@@ -1011,31 +1021,31 @@
         <v>22</v>
       </c>
       <c r="C16" s="9">
-        <v>2282</v>
+        <v>2285</v>
       </c>
       <c r="D16" s="13">
-        <v>5.0225597006712883</v>
+        <v>5.0249598662942843</v>
       </c>
       <c r="E16" s="11">
-        <v>25.37248028045574</v>
+        <v>32.341356673960611</v>
       </c>
       <c r="F16" s="11">
-        <v>55.872042068361083</v>
+        <v>64.070021881838073</v>
       </c>
       <c r="G16" s="11">
-        <v>80.41191936897458</v>
+        <v>88.402625820568929</v>
       </c>
       <c r="H16" s="11">
-        <v>91.980718667835234</v>
+        <v>97.02407002188184</v>
       </c>
       <c r="I16" s="11">
-        <v>97.721297107800183</v>
+        <v>99.606126914660834</v>
       </c>
       <c r="J16" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="15">
@@ -1063,7 +1073,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="15"/>
@@ -1075,7 +1085,7 @@
       <c r="I18" s="16"/>
       <c r="J18" s="17"/>
     </row>
-    <row r="19" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>23</v>
       </c>
@@ -1083,31 +1093,31 @@
         <v>19</v>
       </c>
       <c r="C19" s="9">
-        <v>1653</v>
+        <v>1655</v>
       </c>
       <c r="D19" s="13">
-        <v>8.3662313999392648</v>
+        <v>8.3674604378381119</v>
       </c>
       <c r="E19" s="11">
-        <v>20.6291591046582</v>
+        <v>27.915407854984892</v>
       </c>
       <c r="F19" s="11">
-        <v>36.781609195402297</v>
+        <v>52.205438066465263</v>
       </c>
       <c r="G19" s="11">
-        <v>55.958862673926191</v>
+        <v>73.655589123867074</v>
       </c>
       <c r="H19" s="11">
-        <v>72.171808832425882</v>
+        <v>89.244712990936563</v>
       </c>
       <c r="I19" s="11">
-        <v>86.146400483968549</v>
+        <v>97.764350453172213</v>
       </c>
       <c r="J19" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
       <c r="B20" s="6"/>
       <c r="C20" s="15">
@@ -1135,7 +1145,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>20</v>
       </c>
@@ -1143,31 +1153,31 @@
         <v>21</v>
       </c>
       <c r="C21" s="9">
-        <v>2887</v>
+        <v>2890</v>
       </c>
       <c r="D21" s="13">
-        <v>11.243525333956459</v>
+        <v>11.247762123452947</v>
       </c>
       <c r="E21" s="11">
-        <v>21.025285763768618</v>
+        <v>29.031141868512112</v>
       </c>
       <c r="F21" s="11">
-        <v>37.616903359889157</v>
+        <v>52.698961937716263</v>
       </c>
       <c r="G21" s="11">
-        <v>57.222029788708006</v>
+        <v>76.574394463667815</v>
       </c>
       <c r="H21" s="11">
-        <v>75.510910980256313</v>
+        <v>90.38062283737024</v>
       </c>
       <c r="I21" s="11">
-        <v>87.876688604087278</v>
+        <v>97.647058823529406</v>
       </c>
       <c r="J21" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
       <c r="B22" s="6"/>
       <c r="C22" s="15">
@@ -1195,7 +1205,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>20</v>
       </c>
@@ -1203,31 +1213,31 @@
         <v>22</v>
       </c>
       <c r="C23" s="9">
-        <v>4540</v>
+        <v>4545</v>
       </c>
       <c r="D23" s="13">
-        <v>9.9922966875756583</v>
+        <v>9.9949420535262679</v>
       </c>
       <c r="E23" s="11">
-        <v>20.881057268722465</v>
+        <v>28.624862486248624</v>
       </c>
       <c r="F23" s="11">
-        <v>37.312775330396477</v>
+        <v>52.519251925192521</v>
       </c>
       <c r="G23" s="11">
-        <v>56.76211453744493</v>
+        <v>75.511551155115512</v>
       </c>
       <c r="H23" s="11">
-        <v>74.295154185022028</v>
+        <v>89.966996699669963</v>
       </c>
       <c r="I23" s="11">
-        <v>87.246696035242294</v>
+        <v>97.689768976897696</v>
       </c>
       <c r="J23" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
       <c r="C24" s="15">
@@ -1255,7 +1265,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6"/>
       <c r="B25" s="6"/>
       <c r="C25" s="15"/>
@@ -1267,7 +1277,7 @@
       <c r="I25" s="16"/>
       <c r="J25" s="17"/>
     </row>
-    <row r="26" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>24</v>
       </c>
@@ -1275,31 +1285,31 @@
         <v>19</v>
       </c>
       <c r="C26" s="9">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="D26" s="13">
-        <v>5.4661402976009716</v>
+        <v>5.4653925880984877</v>
       </c>
       <c r="E26" s="11">
-        <v>8.7037037037037042</v>
+        <v>14.061054579093431</v>
       </c>
       <c r="F26" s="11">
-        <v>27.592592592592592</v>
+        <v>39.037927844588346</v>
       </c>
       <c r="G26" s="11">
-        <v>54.074074074074076</v>
+        <v>70.675300647548568</v>
       </c>
       <c r="H26" s="11">
-        <v>77.962962962962962</v>
+        <v>91.026827012025905</v>
       </c>
       <c r="I26" s="11">
-        <v>92.037037037037038</v>
+        <v>98.427382053654028</v>
       </c>
       <c r="J26" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6"/>
       <c r="B27" s="6"/>
       <c r="C27" s="15">
@@ -1327,7 +1337,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>20</v>
       </c>
@@ -1335,31 +1345,31 @@
         <v>21</v>
       </c>
       <c r="C28" s="9">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="D28" s="13">
-        <v>3.138995988627955</v>
+        <v>3.1447030435121039</v>
       </c>
       <c r="E28" s="11">
-        <v>15.508684863523573</v>
+        <v>23.514851485148512</v>
       </c>
       <c r="F28" s="11">
-        <v>38.213399503722087</v>
+        <v>48.762376237623762</v>
       </c>
       <c r="G28" s="11">
-        <v>63.027295285359799</v>
+        <v>75.618811881188122</v>
       </c>
       <c r="H28" s="11">
-        <v>84.49131513647643</v>
+        <v>92.821782178217831</v>
       </c>
       <c r="I28" s="11">
-        <v>93.796526054590572</v>
+        <v>99.009900990099013</v>
       </c>
       <c r="J28" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
       <c r="B29" s="6"/>
       <c r="C29" s="15">
@@ -1387,7 +1397,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>20</v>
       </c>
@@ -1395,31 +1405,31 @@
         <v>22</v>
       </c>
       <c r="C30" s="9">
-        <v>1886</v>
+        <v>1889</v>
       </c>
       <c r="D30" s="13">
-        <v>4.1509849235171119</v>
+        <v>4.1541134299474409</v>
       </c>
       <c r="E30" s="11">
-        <v>11.611876988335101</v>
+        <v>18.104817363684489</v>
       </c>
       <c r="F30" s="11">
-        <v>32.131495227995757</v>
+        <v>43.197458973001588</v>
       </c>
       <c r="G30" s="11">
-        <v>57.900318133616111</v>
+        <v>72.789835892006352</v>
       </c>
       <c r="H30" s="11">
-        <v>80.752916224814413</v>
+        <v>91.794600317628365</v>
       </c>
       <c r="I30" s="11">
-        <v>92.788971367974554</v>
+        <v>98.67654843832716</v>
       </c>
       <c r="J30" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
       <c r="B31" s="6"/>
       <c r="C31" s="15">
@@ -1447,7 +1457,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6"/>
       <c r="B32" s="6"/>
       <c r="C32" s="15"/>
@@ -1459,7 +1469,7 @@
       <c r="I32" s="16"/>
       <c r="J32" s="17"/>
     </row>
-    <row r="33" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>25</v>
       </c>
@@ -1467,31 +1477,31 @@
         <v>19</v>
       </c>
       <c r="C33" s="9">
-        <v>1755</v>
+        <v>1757</v>
       </c>
       <c r="D33" s="13">
-        <v>8.8824779836015786</v>
+        <v>8.8831589059103084</v>
       </c>
       <c r="E33" s="11">
-        <v>25.128205128205128</v>
+        <v>34.319863403528743</v>
       </c>
       <c r="F33" s="11">
-        <v>40.56980056980057</v>
+        <v>58.281161070005695</v>
       </c>
       <c r="G33" s="11">
-        <v>59.202279202279207</v>
+        <v>77.746158224245875</v>
       </c>
       <c r="H33" s="11">
-        <v>75.327635327635321</v>
+        <v>90.495162208309623</v>
       </c>
       <c r="I33" s="11">
-        <v>87.692307692307693</v>
+        <v>97.609561752988043</v>
       </c>
       <c r="J33" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
       <c r="B34" s="6"/>
       <c r="C34" s="15">
@@ -1519,7 +1529,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>20</v>
       </c>
@@ -1527,31 +1537,31 @@
         <v>21</v>
       </c>
       <c r="C35" s="9">
-        <v>2087</v>
+        <v>2089</v>
       </c>
       <c r="D35" s="13">
-        <v>8.1278965611247429</v>
+        <v>8.130302794426715</v>
       </c>
       <c r="E35" s="11">
-        <v>25.395304264494488</v>
+        <v>35.375777884155099</v>
       </c>
       <c r="F35" s="11">
-        <v>43.124101581217055</v>
+        <v>59.980852082336042</v>
       </c>
       <c r="G35" s="11">
-        <v>62.961188308576908</v>
+        <v>81.187170895165153</v>
       </c>
       <c r="H35" s="11">
-        <v>79.108768567321519</v>
+        <v>91.622786022020108</v>
       </c>
       <c r="I35" s="11">
-        <v>89.937709631049358</v>
+        <v>98.03733843944471</v>
       </c>
       <c r="J35" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
       <c r="B36" s="6"/>
       <c r="C36" s="15">
@@ -1579,7 +1589,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>20</v>
       </c>
@@ -1587,31 +1597,31 @@
         <v>22</v>
       </c>
       <c r="C37" s="9">
-        <v>3842</v>
+        <v>3846</v>
       </c>
       <c r="D37" s="13">
-        <v>8.4560360955210747</v>
+        <v>8.4577661469443406</v>
       </c>
       <c r="E37" s="11">
-        <v>25.273295158771475</v>
+        <v>34.893395735829436</v>
       </c>
       <c r="F37" s="11">
-        <v>41.957313899010934</v>
+        <v>59.204368174726987</v>
       </c>
       <c r="G37" s="11">
-        <v>61.244143675169184</v>
+        <v>79.615184607384293</v>
       </c>
       <c r="H37" s="11">
-        <v>77.381572097865686</v>
+        <v>91.107644305772226</v>
       </c>
       <c r="I37" s="11">
-        <v>88.912024986985955</v>
+        <v>97.841913676547065</v>
       </c>
       <c r="J37" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
       <c r="B38" s="6"/>
       <c r="C38" s="15">
@@ -1639,7 +1649,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
       <c r="B39" s="6"/>
       <c r="C39" s="15"/>
@@ -1651,7 +1661,7 @@
       <c r="I39" s="16"/>
       <c r="J39" s="17"/>
     </row>
-    <row r="40" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>26</v>
       </c>
@@ -1662,28 +1672,28 @@
         <v>17</v>
       </c>
       <c r="D40" s="13">
-        <v>8.6041097277052336E-2</v>
+        <v>8.5949744678699633E-2</v>
       </c>
       <c r="E40" s="11">
         <v>23.52941176470588</v>
       </c>
       <c r="F40" s="11">
-        <v>35.294117647058826</v>
+        <v>41.17647058823529</v>
       </c>
       <c r="G40" s="11">
-        <v>52.941176470588239</v>
+        <v>58.82352941176471</v>
       </c>
       <c r="H40" s="11">
-        <v>70.588235294117652</v>
+        <v>82.35294117647058</v>
       </c>
       <c r="I40" s="11">
-        <v>88.235294117647058</v>
+        <v>94.117647058823522</v>
       </c>
       <c r="J40" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6"/>
       <c r="B41" s="6"/>
       <c r="C41" s="15">
@@ -1711,7 +1721,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>20</v>
       </c>
@@ -1722,19 +1732,19 @@
         <v>26</v>
       </c>
       <c r="D42" s="13">
-        <v>0.10125793511703081</v>
+        <v>0.10119093951895385</v>
       </c>
       <c r="E42" s="11">
-        <v>7.6923076923076925</v>
+        <v>15.384615384615385</v>
       </c>
       <c r="F42" s="11">
-        <v>30.76923076923077</v>
+        <v>53.846153846153847</v>
       </c>
       <c r="G42" s="11">
-        <v>53.846153846153847</v>
+        <v>65.384615384615387</v>
       </c>
       <c r="H42" s="11">
-        <v>88.461538461538453</v>
+        <v>92.307692307692307</v>
       </c>
       <c r="I42" s="11">
         <v>92.307692307692307</v>
@@ -1743,7 +1753,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="6"/>
       <c r="B43" s="6"/>
       <c r="C43" s="15">
@@ -1771,7 +1781,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>20</v>
       </c>
@@ -1782,28 +1792,28 @@
         <v>43</v>
       </c>
       <c r="D44" s="13">
-        <v>9.4640695499064606E-2</v>
+        <v>9.4561607987157223E-2</v>
       </c>
       <c r="E44" s="11">
-        <v>13.953488372093023</v>
+        <v>18.604651162790699</v>
       </c>
       <c r="F44" s="11">
-        <v>32.558139534883722</v>
+        <v>48.837209302325576</v>
       </c>
       <c r="G44" s="11">
-        <v>53.488372093023251</v>
+        <v>62.790697674418603</v>
       </c>
       <c r="H44" s="11">
-        <v>81.395348837209298</v>
+        <v>88.372093023255815</v>
       </c>
       <c r="I44" s="11">
-        <v>90.697674418604649</v>
+        <v>93.023255813953483</v>
       </c>
       <c r="J44" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="6"/>
       <c r="B45" s="6"/>
       <c r="C45" s="15">
@@ -1831,7 +1841,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="6"/>
       <c r="B46" s="6"/>
       <c r="C46" s="15"/>
@@ -1843,7 +1853,7 @@
       <c r="I46" s="16"/>
       <c r="J46" s="17"/>
     </row>
-    <row r="47" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
         <v>27</v>
       </c>
@@ -1875,7 +1885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="6"/>
       <c r="B48" s="6"/>
       <c r="C48" s="15">
@@ -1903,7 +1913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
         <v>20</v>
       </c>
@@ -1935,7 +1945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="6"/>
       <c r="B50" s="6"/>
       <c r="C50" s="15">
@@ -1963,7 +1973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
         <v>20</v>
       </c>
@@ -1995,7 +2005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="6"/>
       <c r="B52" s="6"/>
       <c r="C52" s="15">
@@ -2023,7 +2033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="6"/>
       <c r="B53" s="6"/>
       <c r="C53" s="15"/>
@@ -2035,7 +2045,7 @@
       <c r="I53" s="16"/>
       <c r="J53" s="17"/>
     </row>
-    <row r="54" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
         <v>28</v>
       </c>
@@ -2046,28 +2056,28 @@
         <v>564</v>
       </c>
       <c r="D54" s="13">
-        <v>2.8545399331916186</v>
+        <v>2.8515091763992113</v>
       </c>
       <c r="E54" s="11">
-        <v>17.907801418439718</v>
+        <v>26.24113475177305</v>
       </c>
       <c r="F54" s="11">
-        <v>34.751773049645394</v>
+        <v>52.659574468085104</v>
       </c>
       <c r="G54" s="11">
-        <v>59.574468085106382</v>
+        <v>77.304964539007088</v>
       </c>
       <c r="H54" s="11">
-        <v>76.59574468085107</v>
+        <v>91.489361702127653</v>
       </c>
       <c r="I54" s="11">
-        <v>87.943262411347519</v>
+        <v>97.872340425531917</v>
       </c>
       <c r="J54" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="6"/>
       <c r="B55" s="6"/>
       <c r="C55" s="15">
@@ -2095,7 +2105,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
         <v>20</v>
       </c>
@@ -2106,28 +2116,28 @@
         <v>72</v>
       </c>
       <c r="D56" s="13">
-        <v>0.28040658955485454</v>
+        <v>0.2802210632832568</v>
       </c>
       <c r="E56" s="11">
-        <v>20.833333333333336</v>
+        <v>40.277777777777779</v>
       </c>
       <c r="F56" s="11">
-        <v>43.055555555555557</v>
+        <v>68.055555555555557</v>
       </c>
       <c r="G56" s="11">
-        <v>62.5</v>
+        <v>84.722222222222214</v>
       </c>
       <c r="H56" s="11">
-        <v>80.555555555555557</v>
+        <v>93.055555555555557</v>
       </c>
       <c r="I56" s="11">
-        <v>93.055555555555557</v>
+        <v>97.222222222222214</v>
       </c>
       <c r="J56" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="6"/>
       <c r="B57" s="6"/>
       <c r="C57" s="15">
@@ -2155,7 +2165,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="58" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
         <v>20</v>
       </c>
@@ -2166,28 +2176,28 @@
         <v>636</v>
       </c>
       <c r="D58" s="13">
-        <v>1.399801914823374</v>
+        <v>1.3986321553449299</v>
       </c>
       <c r="E58" s="11">
-        <v>18.238993710691823</v>
+        <v>27.830188679245282</v>
       </c>
       <c r="F58" s="11">
-        <v>35.691823899371066</v>
+        <v>54.40251572327044</v>
       </c>
       <c r="G58" s="11">
-        <v>59.905660377358494</v>
+        <v>78.144654088050316</v>
       </c>
       <c r="H58" s="11">
-        <v>77.04402515723271</v>
+        <v>91.666666666666657</v>
       </c>
       <c r="I58" s="11">
-        <v>88.522012578616355</v>
+        <v>97.798742138364787</v>
       </c>
       <c r="J58" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="59" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="6"/>
       <c r="B59" s="6"/>
       <c r="C59" s="15">
@@ -2215,7 +2225,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="18"/>
       <c r="B60" s="18"/>
       <c r="C60" s="18"/>
@@ -2227,7 +2237,7 @@
       <c r="I60" s="18"/>
       <c r="J60" s="18"/>
     </row>
-    <row r="61" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
         <v>29</v>
       </c>
@@ -2259,7 +2269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="6"/>
       <c r="B62" s="6"/>
       <c r="C62" s="15">
@@ -2287,7 +2297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
         <v>20</v>
       </c>
@@ -2319,7 +2329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="6"/>
       <c r="B64" s="6"/>
       <c r="C64" s="15">
@@ -2347,7 +2357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
         <v>20</v>
       </c>
@@ -2379,7 +2389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="6"/>
       <c r="B66" s="6"/>
       <c r="C66" s="15">
@@ -2407,7 +2417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="6"/>
       <c r="B67" s="6"/>
       <c r="C67" s="15"/>
@@ -2419,7 +2429,7 @@
       <c r="I67" s="16"/>
       <c r="J67" s="17"/>
     </row>
-    <row r="68" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
         <v>30</v>
       </c>
@@ -2430,28 +2440,28 @@
         <v>659</v>
       </c>
       <c r="D68" s="13">
-        <v>3.3353578297398525</v>
+        <v>3.3318165731331209</v>
       </c>
       <c r="E68" s="11">
-        <v>10.166919575113809</v>
+        <v>14.264036418816389</v>
       </c>
       <c r="F68" s="11">
-        <v>29.438543247344462</v>
+        <v>40.515933232169957</v>
       </c>
       <c r="G68" s="11">
-        <v>55.386949924127471</v>
+        <v>72.989377845220034</v>
       </c>
       <c r="H68" s="11">
-        <v>77.086494688922613</v>
+        <v>92.26100151745068</v>
       </c>
       <c r="I68" s="11">
-        <v>90.44006069802731</v>
+        <v>98.937784522003042</v>
       </c>
       <c r="J68" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="69" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="6"/>
       <c r="B69" s="6"/>
       <c r="C69" s="15">
@@ -2479,7 +2489,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="70" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
         <v>20</v>
       </c>
@@ -2490,28 +2500,28 @@
         <v>293</v>
       </c>
       <c r="D70" s="13">
-        <v>1.1410990380496164</v>
+        <v>1.1403440491943644</v>
       </c>
       <c r="E70" s="11">
-        <v>24.232081911262799</v>
+        <v>34.8122866894198</v>
       </c>
       <c r="F70" s="11">
-        <v>51.19453924914675</v>
+        <v>69.6245733788396</v>
       </c>
       <c r="G70" s="11">
-        <v>76.450511945392492</v>
+        <v>87.713310580204777</v>
       </c>
       <c r="H70" s="11">
-        <v>88.737201365187715</v>
+        <v>95.221843003412971</v>
       </c>
       <c r="I70" s="11">
-        <v>96.24573378839591</v>
+        <v>99.317406143344712</v>
       </c>
       <c r="J70" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="71" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="6"/>
       <c r="B71" s="6"/>
       <c r="C71" s="15">
@@ -2539,7 +2549,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="72" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
         <v>20</v>
       </c>
@@ -2550,28 +2560,28 @@
         <v>952</v>
       </c>
       <c r="D72" s="13">
-        <v>2.0953009794211512</v>
+        <v>2.0935500186924108</v>
       </c>
       <c r="E72" s="11">
-        <v>14.495798319327733</v>
+        <v>20.588235294117645</v>
       </c>
       <c r="F72" s="11">
-        <v>36.134453781512605</v>
+        <v>49.47478991596639</v>
       </c>
       <c r="G72" s="11">
-        <v>61.869747899159663</v>
+        <v>77.52100840336135</v>
       </c>
       <c r="H72" s="11">
-        <v>80.672268907563023</v>
+        <v>93.172268907563023</v>
       </c>
       <c r="I72" s="11">
-        <v>92.226890756302524</v>
+        <v>99.054621848739501</v>
       </c>
       <c r="J72" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="73" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="6"/>
       <c r="B73" s="6"/>
       <c r="C73" s="15">
@@ -2599,7 +2609,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="74" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="6"/>
       <c r="B74" s="6"/>
       <c r="C74" s="15"/>
@@ -2611,7 +2621,7 @@
       <c r="I74" s="16"/>
       <c r="J74" s="17"/>
     </row>
-    <row r="75" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
         <v>31</v>
       </c>
@@ -2619,31 +2629,31 @@
         <v>19</v>
       </c>
       <c r="C75" s="9">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D75" s="13">
-        <v>1.1691466747646522</v>
+        <v>1.1729612214975478</v>
       </c>
       <c r="E75" s="11">
-        <v>14.71861471861472</v>
+        <v>22.844827586206897</v>
       </c>
       <c r="F75" s="11">
-        <v>42.424242424242422</v>
+        <v>56.465517241379317</v>
       </c>
       <c r="G75" s="11">
-        <v>77.489177489177479</v>
+        <v>89.224137931034491</v>
       </c>
       <c r="H75" s="11">
-        <v>95.67099567099568</v>
+        <v>97.41379310344827</v>
       </c>
       <c r="I75" s="11">
-        <v>99.567099567099575</v>
+        <v>100</v>
       </c>
       <c r="J75" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="76" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="6"/>
       <c r="B76" s="6"/>
       <c r="C76" s="15">
@@ -2671,7 +2681,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="77" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="6" t="s">
         <v>20</v>
       </c>
@@ -2682,19 +2692,19 @@
         <v>486</v>
       </c>
       <c r="D77" s="13">
-        <v>1.8927444794952681</v>
+        <v>1.8914921771619833</v>
       </c>
       <c r="E77" s="11">
-        <v>30.452674897119341</v>
+        <v>38.477366255144034</v>
       </c>
       <c r="F77" s="11">
-        <v>60.288065843621396</v>
+        <v>73.66255144032921</v>
       </c>
       <c r="G77" s="11">
-        <v>88.68312757201646</v>
+        <v>95.679012345679013</v>
       </c>
       <c r="H77" s="11">
-        <v>97.53086419753086</v>
+        <v>98.971193415637856</v>
       </c>
       <c r="I77" s="11">
         <v>100</v>
@@ -2703,7 +2713,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="78" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="6"/>
       <c r="B78" s="6"/>
       <c r="C78" s="15">
@@ -2731,7 +2741,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="79" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="6" t="s">
         <v>20</v>
       </c>
@@ -2739,31 +2749,31 @@
         <v>22</v>
       </c>
       <c r="C79" s="9">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="D79" s="13">
-        <v>1.5780785737867282</v>
+        <v>1.5789589426692765</v>
       </c>
       <c r="E79" s="11">
-        <v>25.383542538354252</v>
+        <v>33.426183844011142</v>
       </c>
       <c r="F79" s="11">
-        <v>54.532775453277551</v>
+        <v>68.105849582172709</v>
       </c>
       <c r="G79" s="11">
-        <v>85.076708507670844</v>
+        <v>93.593314763231191</v>
       </c>
       <c r="H79" s="11">
-        <v>96.931659693165969</v>
+        <v>98.467966573816156</v>
       </c>
       <c r="I79" s="11">
-        <v>99.86052998605301</v>
+        <v>100</v>
       </c>
       <c r="J79" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="80" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="6"/>
       <c r="B80" s="6"/>
       <c r="C80" s="15">
@@ -2791,7 +2801,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="81" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="6"/>
       <c r="B81" s="6"/>
       <c r="C81" s="15"/>
@@ -2803,7 +2813,7 @@
       <c r="I81" s="16"/>
       <c r="J81" s="17"/>
     </row>
-    <row r="82" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="6" t="s">
         <v>32</v>
       </c>
@@ -2811,31 +2821,31 @@
         <v>19</v>
       </c>
       <c r="C82" s="9">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="D82" s="13">
-        <v>2.5407429901811924</v>
+        <v>2.5431012690227006</v>
       </c>
       <c r="E82" s="11">
-        <v>18.525896414342629</v>
+        <v>25.049701789264411</v>
       </c>
       <c r="F82" s="11">
-        <v>37.051792828685258</v>
+        <v>50.497017892644138</v>
       </c>
       <c r="G82" s="11">
-        <v>60.159362549800797</v>
+        <v>74.751491053677938</v>
       </c>
       <c r="H82" s="11">
-        <v>75.498007968127496</v>
+        <v>91.650099403578537</v>
       </c>
       <c r="I82" s="11">
-        <v>90.039840637450197</v>
+        <v>98.608349900596423</v>
       </c>
       <c r="J82" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="83" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="6"/>
       <c r="B83" s="6"/>
       <c r="C83" s="15">
@@ -2863,7 +2873,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="84" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="6" t="s">
         <v>20</v>
       </c>
@@ -2874,28 +2884,28 @@
         <v>231</v>
       </c>
       <c r="D84" s="13">
-        <v>0.89963780815515826</v>
+        <v>0.89904257803378218</v>
       </c>
       <c r="E84" s="11">
-        <v>32.467532467532465</v>
+        <v>39.393939393939391</v>
       </c>
       <c r="F84" s="11">
-        <v>51.94805194805194</v>
+        <v>67.099567099567111</v>
       </c>
       <c r="G84" s="11">
-        <v>71.861471861471856</v>
+        <v>87.878787878787875</v>
       </c>
       <c r="H84" s="11">
-        <v>85.714285714285708</v>
+        <v>95.67099567099568</v>
       </c>
       <c r="I84" s="11">
-        <v>93.506493506493499</v>
+        <v>99.134199134199136</v>
       </c>
       <c r="J84" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="85" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="6"/>
       <c r="B85" s="6"/>
       <c r="C85" s="15">
@@ -2923,7 +2933,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="86" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="6" t="s">
         <v>20</v>
       </c>
@@ -2931,31 +2941,31 @@
         <v>22</v>
       </c>
       <c r="C86" s="9">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="D86" s="13">
-        <v>1.6132937162980081</v>
+        <v>1.6141446572691489</v>
       </c>
       <c r="E86" s="11">
-        <v>22.919508867667123</v>
+        <v>29.564032697547681</v>
       </c>
       <c r="F86" s="11">
-        <v>41.746248294679397</v>
+        <v>55.722070844686641</v>
       </c>
       <c r="G86" s="11">
-        <v>63.847203274215545</v>
+        <v>78.882833787465941</v>
       </c>
       <c r="H86" s="11">
-        <v>78.717598908594823</v>
+        <v>92.915531335149865</v>
       </c>
       <c r="I86" s="11">
-        <v>91.132332878581167</v>
+        <v>98.773841961852867</v>
       </c>
       <c r="J86" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="87" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="6"/>
       <c r="B87" s="6"/>
       <c r="C87" s="15">
@@ -2983,7 +2993,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="88" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="6"/>
       <c r="B88" s="6"/>
       <c r="C88" s="15"/>
@@ -2995,7 +3005,7 @@
       <c r="I88" s="16"/>
       <c r="J88" s="17"/>
     </row>
-    <row r="89" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
         <v>33</v>
       </c>
@@ -3006,28 +3016,28 @@
         <v>115</v>
       </c>
       <c r="D89" s="13">
-        <v>0.58204271687417752</v>
+        <v>0.58142474341473283</v>
       </c>
       <c r="E89" s="11">
         <v>7.8260869565217401</v>
       </c>
       <c r="F89" s="11">
-        <v>19.130434782608695</v>
+        <v>31.304347826086961</v>
       </c>
       <c r="G89" s="11">
-        <v>60.869565217391312</v>
+        <v>80.869565217391298</v>
       </c>
       <c r="H89" s="11">
-        <v>93.043478260869563</v>
+        <v>98.260869565217391</v>
       </c>
       <c r="I89" s="11">
-        <v>98.260869565217391</v>
+        <v>100</v>
       </c>
       <c r="J89" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="90" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="6"/>
       <c r="B90" s="6"/>
       <c r="C90" s="15">
@@ -3055,7 +3065,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="91" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="6" t="s">
         <v>20</v>
       </c>
@@ -3066,19 +3076,19 @@
         <v>275</v>
       </c>
       <c r="D91" s="13">
-        <v>1.0709973906609027</v>
+        <v>1.0702887833735502</v>
       </c>
       <c r="E91" s="11">
-        <v>14.181818181818182</v>
+        <v>20</v>
       </c>
       <c r="F91" s="11">
-        <v>42.18181818181818</v>
+        <v>50.545454545454547</v>
       </c>
       <c r="G91" s="11">
-        <v>79.63636363636364</v>
+        <v>87.272727272727266</v>
       </c>
       <c r="H91" s="11">
-        <v>96.36363636363636</v>
+        <v>98.181818181818187</v>
       </c>
       <c r="I91" s="11">
         <v>99.63636363636364</v>
@@ -3087,7 +3097,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="92" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="6"/>
       <c r="B92" s="6"/>
       <c r="C92" s="15">
@@ -3115,7 +3125,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="93" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="6" t="s">
         <v>20</v>
       </c>
@@ -3126,28 +3136,28 @@
         <v>390</v>
       </c>
       <c r="D93" s="13">
-        <v>0.85836909871244638</v>
+        <v>0.85765179337189101</v>
       </c>
       <c r="E93" s="11">
-        <v>12.307692307692308</v>
+        <v>16.410256410256409</v>
       </c>
       <c r="F93" s="11">
-        <v>35.384615384615387</v>
+        <v>44.871794871794876</v>
       </c>
       <c r="G93" s="11">
-        <v>74.102564102564102</v>
+        <v>85.384615384615387</v>
       </c>
       <c r="H93" s="11">
-        <v>95.384615384615387</v>
+        <v>98.205128205128204</v>
       </c>
       <c r="I93" s="11">
-        <v>99.230769230769226</v>
+        <v>99.743589743589752</v>
       </c>
       <c r="J93" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="94" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="6"/>
       <c r="B94" s="6"/>
       <c r="C94" s="15">
@@ -3175,7 +3185,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="95" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="6"/>
       <c r="B95" s="6"/>
       <c r="C95" s="15"/>
@@ -3187,7 +3197,7 @@
       <c r="I95" s="16"/>
       <c r="J95" s="17"/>
     </row>
-    <row r="96" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="6" t="s">
         <v>34</v>
       </c>
@@ -3195,31 +3205,31 @@
         <v>19</v>
       </c>
       <c r="C96" s="9">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="D96" s="13">
-        <v>2.3332321085130072</v>
+        <v>2.3358107083270134</v>
       </c>
       <c r="E96" s="11">
-        <v>14.316702819956618</v>
+        <v>20.346320346320347</v>
       </c>
       <c r="F96" s="11">
-        <v>37.310195227765725</v>
+        <v>46.536796536796537</v>
       </c>
       <c r="G96" s="11">
-        <v>63.991323210412141</v>
+        <v>77.056277056277054</v>
       </c>
       <c r="H96" s="11">
-        <v>88.50325379609545</v>
+        <v>93.939393939393938</v>
       </c>
       <c r="I96" s="11">
-        <v>97.180043383947933</v>
+        <v>99.350649350649363</v>
       </c>
       <c r="J96" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="97" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="6"/>
       <c r="B97" s="6"/>
       <c r="C97" s="15">
@@ -3247,7 +3257,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="98" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="6" t="s">
         <v>20</v>
       </c>
@@ -3255,31 +3265,31 @@
         <v>21</v>
       </c>
       <c r="C98" s="9">
-        <v>1748</v>
+        <v>1749</v>
       </c>
       <c r="D98" s="13">
-        <v>6.807648868637302</v>
+        <v>6.8070366622557792</v>
       </c>
       <c r="E98" s="11">
-        <v>20.881006864988557</v>
+        <v>27.101200686106345</v>
       </c>
       <c r="F98" s="11">
-        <v>48.741418764302061</v>
+        <v>58.319039451114918</v>
       </c>
       <c r="G98" s="11">
-        <v>77.345537757437071</v>
+        <v>86.678101772441394</v>
       </c>
       <c r="H98" s="11">
-        <v>93.192219679633865</v>
+        <v>97.084048027444254</v>
       </c>
       <c r="I98" s="11">
-        <v>98.398169336384441</v>
+        <v>99.656946826758158</v>
       </c>
       <c r="J98" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="99" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="6"/>
       <c r="B99" s="6"/>
       <c r="C99" s="15">
@@ -3307,7 +3317,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="100" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
         <v>20</v>
       </c>
@@ -3315,31 +3325,31 @@
         <v>22</v>
       </c>
       <c r="C100" s="9">
-        <v>2209</v>
+        <v>2211</v>
       </c>
       <c r="D100" s="13">
-        <v>4.8618906129635739</v>
+        <v>4.8622259362698745</v>
       </c>
       <c r="E100" s="11">
-        <v>19.51109099139882</v>
+        <v>25.68973315241972</v>
       </c>
       <c r="F100" s="11">
-        <v>46.355817111815298</v>
+        <v>55.857078245137949</v>
       </c>
       <c r="G100" s="11">
-        <v>74.558623811679496</v>
+        <v>84.667571234735419</v>
       </c>
       <c r="H100" s="11">
-        <v>92.213671344499772</v>
+        <v>96.426956128448666</v>
       </c>
       <c r="I100" s="11">
-        <v>98.14395654142146</v>
+        <v>99.592944369063773</v>
       </c>
       <c r="J100" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="6"/>
       <c r="B101" s="6"/>
       <c r="C101" s="15">
@@ -3367,7 +3377,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="6"/>
       <c r="B102" s="6"/>
       <c r="C102" s="15"/>
@@ -3379,7 +3389,7 @@
       <c r="I102" s="16"/>
       <c r="J102" s="17"/>
     </row>
-    <row r="103" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="6" t="s">
         <v>35</v>
       </c>
@@ -3390,28 +3400,28 @@
         <v>259</v>
       </c>
       <c r="D103" s="13">
-        <v>1.3108614232209739</v>
+        <v>1.3094696395166592</v>
       </c>
       <c r="E103" s="11">
-        <v>12.355212355212355</v>
+        <v>18.532818532818531</v>
       </c>
       <c r="F103" s="11">
-        <v>31.660231660231659</v>
+        <v>39.382239382239383</v>
       </c>
       <c r="G103" s="11">
-        <v>57.915057915057908</v>
+        <v>69.498069498069498</v>
       </c>
       <c r="H103" s="11">
-        <v>81.081081081081081</v>
+        <v>89.575289575289574</v>
       </c>
       <c r="I103" s="11">
-        <v>95.752895752895753</v>
+        <v>98.841698841698843</v>
       </c>
       <c r="J103" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="104" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="6"/>
       <c r="B104" s="6"/>
       <c r="C104" s="15">
@@ -3439,7 +3449,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="105" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="6" t="s">
         <v>20</v>
       </c>
@@ -3450,28 +3460,28 @@
         <v>734</v>
       </c>
       <c r="D105" s="13">
-        <v>2.8585893990731006</v>
+        <v>2.8566980618043121</v>
       </c>
       <c r="E105" s="11">
-        <v>15.667574931880109</v>
+        <v>23.43324250681199</v>
       </c>
       <c r="F105" s="11">
-        <v>37.46594005449591</v>
+        <v>50.817438692098094</v>
       </c>
       <c r="G105" s="11">
-        <v>64.577656675749324</v>
+        <v>79.291553133514995</v>
       </c>
       <c r="H105" s="11">
-        <v>88.555858310626704</v>
+        <v>95.504087193460492</v>
       </c>
       <c r="I105" s="11">
-        <v>96.866485013623986</v>
+        <v>99.04632152588556</v>
       </c>
       <c r="J105" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="106" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="6"/>
       <c r="B106" s="6"/>
       <c r="C106" s="15">
@@ -3499,7 +3509,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="107" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="6" t="s">
         <v>20</v>
       </c>
@@ -3510,28 +3520,28 @@
         <v>993</v>
       </c>
       <c r="D107" s="13">
-        <v>2.1855397821063058</v>
+        <v>2.1837134123545843</v>
       </c>
       <c r="E107" s="11">
-        <v>14.803625377643503</v>
+        <v>22.155085599194361</v>
       </c>
       <c r="F107" s="11">
-        <v>35.951661631419938</v>
+        <v>47.834843907351463</v>
       </c>
       <c r="G107" s="11">
-        <v>62.839879154078545</v>
+        <v>76.737160120845928</v>
       </c>
       <c r="H107" s="11">
-        <v>86.606243705941594</v>
+        <v>93.957703927492446</v>
       </c>
       <c r="I107" s="11">
-        <v>96.576032225579056</v>
+        <v>98.992950654582074</v>
       </c>
       <c r="J107" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="108" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="6"/>
       <c r="B108" s="6"/>
       <c r="C108" s="15">
@@ -3559,7 +3569,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="109" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="18"/>
       <c r="B109" s="18"/>
       <c r="C109" s="18"/>
@@ -3571,7 +3581,7 @@
       <c r="I109" s="18"/>
       <c r="J109" s="18"/>
     </row>
-    <row r="110" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="6" t="s">
         <v>36</v>
       </c>
@@ -3582,28 +3592,28 @@
         <v>101</v>
       </c>
       <c r="D110" s="13">
-        <v>0.51118534264601678</v>
+        <v>0.5106426007381567</v>
       </c>
       <c r="E110" s="11">
-        <v>38.613861386138616</v>
+        <v>42.574257425742573</v>
       </c>
       <c r="F110" s="11">
-        <v>61.386138613861384</v>
+        <v>68.316831683168317</v>
       </c>
       <c r="G110" s="11">
-        <v>83.168316831683171</v>
+        <v>88.118811881188122</v>
       </c>
       <c r="H110" s="11">
-        <v>92.079207920792086</v>
+        <v>97.029702970297024</v>
       </c>
       <c r="I110" s="11">
-        <v>96.039603960396036</v>
+        <v>99.009900990099013</v>
       </c>
       <c r="J110" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="111" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="6"/>
       <c r="B111" s="6"/>
       <c r="C111" s="15">
@@ -3631,7 +3641,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="112" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="6" t="s">
         <v>20</v>
       </c>
@@ -3642,28 +3652,28 @@
         <v>327</v>
       </c>
       <c r="D112" s="13">
-        <v>1.2735132608949644</v>
+        <v>1.2726706624114579</v>
       </c>
       <c r="E112" s="11">
-        <v>43.119266055045877</v>
+        <v>48.623853211009177</v>
       </c>
       <c r="F112" s="11">
-        <v>69.418960244648318</v>
+        <v>76.452599388379213</v>
       </c>
       <c r="G112" s="11">
-        <v>87.767584097859327</v>
+        <v>94.801223241590222</v>
       </c>
       <c r="H112" s="11">
-        <v>96.63608562691131</v>
+        <v>98.470948012232412</v>
       </c>
       <c r="I112" s="11">
-        <v>99.388379204892956</v>
+        <v>100</v>
       </c>
       <c r="J112" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="113" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="6"/>
       <c r="B113" s="6"/>
       <c r="C113" s="15">
@@ -3691,7 +3701,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="114" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="6" t="s">
         <v>20</v>
       </c>
@@ -3702,28 +3712,28 @@
         <v>428</v>
       </c>
       <c r="D114" s="13">
-        <v>0.94200506217673607</v>
+        <v>0.94121786554658815</v>
       </c>
       <c r="E114" s="11">
-        <v>42.056074766355138</v>
+        <v>47.196261682242991</v>
       </c>
       <c r="F114" s="11">
-        <v>67.523364485981304</v>
+        <v>74.532710280373834</v>
       </c>
       <c r="G114" s="11">
-        <v>86.682242990654203</v>
+        <v>93.224299065420553</v>
       </c>
       <c r="H114" s="11">
-        <v>95.56074766355141</v>
+        <v>98.130841121495322</v>
       </c>
       <c r="I114" s="11">
-        <v>98.598130841121502</v>
+        <v>99.766355140186917</v>
       </c>
       <c r="J114" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="115" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="6"/>
       <c r="B115" s="6"/>
       <c r="C115" s="15">
@@ -3751,7 +3761,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="116" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="6"/>
       <c r="B116" s="6"/>
       <c r="C116" s="15"/>
@@ -3763,7 +3773,7 @@
       <c r="I116" s="16"/>
       <c r="J116" s="17"/>
     </row>
-    <row r="117" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="6" t="s">
         <v>37</v>
       </c>
@@ -3795,7 +3805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="6"/>
       <c r="B118" s="6"/>
       <c r="C118" s="15">
@@ -3823,7 +3833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="6" t="s">
         <v>20</v>
       </c>
@@ -3855,7 +3865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="6"/>
       <c r="B120" s="6"/>
       <c r="C120" s="15">
@@ -3883,7 +3893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="6" t="s">
         <v>20</v>
       </c>
@@ -3915,7 +3925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="6"/>
       <c r="B122" s="6"/>
       <c r="C122" s="15">
@@ -3943,7 +3953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="6"/>
       <c r="B123" s="6"/>
       <c r="C123" s="15"/>
@@ -3955,7 +3965,7 @@
       <c r="I123" s="16"/>
       <c r="J123" s="17"/>
     </row>
-    <row r="124" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="6" t="s">
         <v>38</v>
       </c>
@@ -3966,28 +3976,28 @@
         <v>923</v>
       </c>
       <c r="D124" s="13">
-        <v>4.6715254580423116</v>
+        <v>4.6665655493199854</v>
       </c>
       <c r="E124" s="11">
-        <v>14.951245937161431</v>
+        <v>23.510292524377032</v>
       </c>
       <c r="F124" s="11">
-        <v>34.669555796316359</v>
+        <v>49.512459371614305</v>
       </c>
       <c r="G124" s="11">
-        <v>55.904658721560132</v>
+        <v>79.306608884073668</v>
       </c>
       <c r="H124" s="11">
-        <v>76.381365113759486</v>
+        <v>92.849404117009755</v>
       </c>
       <c r="I124" s="11">
-        <v>89.707475622968573</v>
+        <v>99.133261105092103</v>
       </c>
       <c r="J124" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="125" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="6"/>
       <c r="B125" s="6"/>
       <c r="C125" s="15">
@@ -4015,7 +4025,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="126" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="6" t="s">
         <v>20</v>
       </c>
@@ -4026,28 +4036,28 @@
         <v>832</v>
       </c>
       <c r="D126" s="13">
-        <v>3.2402539237449859</v>
+        <v>3.2381100646065231</v>
       </c>
       <c r="E126" s="11">
-        <v>29.567307692307693</v>
+        <v>39.543269230769226</v>
       </c>
       <c r="F126" s="11">
-        <v>53.365384615384613</v>
+        <v>69.110576923076934</v>
       </c>
       <c r="G126" s="11">
-        <v>72.59615384615384</v>
+        <v>89.302884615384613</v>
       </c>
       <c r="H126" s="11">
-        <v>89.302884615384613</v>
+        <v>97.115384615384613</v>
       </c>
       <c r="I126" s="11">
-        <v>94.831730769230774</v>
+        <v>99.879807692307693</v>
       </c>
       <c r="J126" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="127" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="6"/>
       <c r="B127" s="6"/>
       <c r="C127" s="15">
@@ -4075,7 +4085,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="128" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="6" t="s">
         <v>20</v>
       </c>
@@ -4086,28 +4096,28 @@
         <v>1755</v>
       </c>
       <c r="D128" s="13">
-        <v>3.8626609442060089</v>
+        <v>3.8594330701735098</v>
       </c>
       <c r="E128" s="11">
-        <v>21.880341880341881</v>
+        <v>31.111111111111111</v>
       </c>
       <c r="F128" s="11">
-        <v>43.532763532763532</v>
+        <v>58.803418803418808</v>
       </c>
       <c r="G128" s="11">
-        <v>63.817663817663814</v>
+        <v>84.045584045584036</v>
       </c>
       <c r="H128" s="11">
-        <v>82.507122507122517</v>
+        <v>94.871794871794862</v>
       </c>
       <c r="I128" s="11">
-        <v>92.136752136752136</v>
+        <v>99.487179487179489</v>
       </c>
       <c r="J128" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="129" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="6"/>
       <c r="B129" s="6"/>
       <c r="C129" s="15">
@@ -4135,7 +4145,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="130" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="6"/>
       <c r="B130" s="6"/>
       <c r="C130" s="15"/>
@@ -4147,7 +4157,7 @@
       <c r="I130" s="16"/>
       <c r="J130" s="17"/>
     </row>
-    <row r="131" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="6" t="s">
         <v>39</v>
       </c>
@@ -4158,10 +4168,10 @@
         <v>26</v>
       </c>
       <c r="D131" s="13">
-        <v>0.13159226642372709</v>
+        <v>0.13145255068507003</v>
       </c>
       <c r="E131" s="11">
-        <v>34.615384615384613</v>
+        <v>38.461538461538467</v>
       </c>
       <c r="F131" s="11">
         <v>57.692307692307686</v>
@@ -4179,7 +4189,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="132" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="6"/>
       <c r="B132" s="6"/>
       <c r="C132" s="15">
@@ -4207,7 +4217,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="133" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="6" t="s">
         <v>20</v>
       </c>
@@ -4218,19 +4228,19 @@
         <v>76</v>
       </c>
       <c r="D133" s="13">
-        <v>0.2959847334190131</v>
+        <v>0.29578890013232662</v>
       </c>
       <c r="E133" s="11">
-        <v>52.631578947368418</v>
+        <v>57.894736842105267</v>
       </c>
       <c r="F133" s="11">
-        <v>78.94736842105263</v>
+        <v>84.210526315789465</v>
       </c>
       <c r="G133" s="11">
-        <v>96.05263157894737</v>
+        <v>98.68421052631578</v>
       </c>
       <c r="H133" s="11">
-        <v>98.68421052631578</v>
+        <v>100</v>
       </c>
       <c r="I133" s="11">
         <v>100</v>
@@ -4239,7 +4249,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="134" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="6"/>
       <c r="B134" s="6"/>
       <c r="C134" s="15">
@@ -4267,7 +4277,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="135" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="6" t="s">
         <v>20</v>
       </c>
@@ -4278,19 +4288,19 @@
         <v>102</v>
       </c>
       <c r="D135" s="13">
-        <v>0.22449653350940904</v>
+        <v>0.22430893057418685</v>
       </c>
       <c r="E135" s="11">
-        <v>48.03921568627451</v>
+        <v>52.941176470588239</v>
       </c>
       <c r="F135" s="11">
-        <v>73.529411764705884</v>
+        <v>77.450980392156865</v>
       </c>
       <c r="G135" s="11">
-        <v>92.156862745098039</v>
+        <v>94.117647058823522</v>
       </c>
       <c r="H135" s="11">
-        <v>99.019607843137265</v>
+        <v>100</v>
       </c>
       <c r="I135" s="11">
         <v>100</v>
@@ -4299,7 +4309,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="136" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="6"/>
       <c r="B136" s="6"/>
       <c r="C136" s="15">
@@ -4327,7 +4337,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="137" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="6"/>
       <c r="B137" s="6"/>
       <c r="C137" s="15"/>
@@ -4339,7 +4349,7 @@
       <c r="I137" s="16"/>
       <c r="J137" s="17"/>
     </row>
-    <row r="138" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="6" t="s">
         <v>40</v>
       </c>
@@ -4347,31 +4357,31 @@
         <v>19</v>
       </c>
       <c r="C138" s="9">
-        <v>990</v>
+        <v>992</v>
       </c>
       <c r="D138" s="13">
-        <v>5.0106286061342242</v>
+        <v>5.0154203953688254</v>
       </c>
       <c r="E138" s="11">
-        <v>14.343434343434344</v>
+        <v>23.387096774193548</v>
       </c>
       <c r="F138" s="11">
-        <v>41.111111111111107</v>
+        <v>54.536290322580648</v>
       </c>
       <c r="G138" s="11">
-        <v>70.909090909090907</v>
+        <v>84.677419354838719</v>
       </c>
       <c r="H138" s="11">
-        <v>86.26262626262627</v>
+        <v>95.665322580645167</v>
       </c>
       <c r="I138" s="11">
-        <v>94.242424242424235</v>
+        <v>99.495967741935488</v>
       </c>
       <c r="J138" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="139" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="6"/>
       <c r="B139" s="6"/>
       <c r="C139" s="15">
@@ -4399,7 +4409,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="140" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="6" t="s">
         <v>20</v>
       </c>
@@ -4407,31 +4417,31 @@
         <v>21</v>
       </c>
       <c r="C140" s="9">
-        <v>1420</v>
+        <v>1422</v>
       </c>
       <c r="D140" s="13">
-        <v>5.530241071776298</v>
+        <v>5.5343659998443213</v>
       </c>
       <c r="E140" s="11">
-        <v>22.112676056338028</v>
+        <v>33.966244725738399</v>
       </c>
       <c r="F140" s="11">
-        <v>52.464788732394361</v>
+        <v>64.838255977496488</v>
       </c>
       <c r="G140" s="11">
-        <v>78.591549295774641</v>
+        <v>88.959212376933891</v>
       </c>
       <c r="H140" s="11">
-        <v>89.859154929577471</v>
+        <v>96.835443037974684</v>
       </c>
       <c r="I140" s="11">
-        <v>96.126760563380287</v>
+        <v>99.367088607594937</v>
       </c>
       <c r="J140" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="141" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="6"/>
       <c r="B141" s="6"/>
       <c r="C141" s="15">
@@ -4459,7 +4469,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="142" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="6" t="s">
         <v>20</v>
       </c>
@@ -4467,31 +4477,31 @@
         <v>22</v>
       </c>
       <c r="C142" s="9">
-        <v>2410</v>
+        <v>2414</v>
       </c>
       <c r="D142" s="13">
-        <v>5.3042808407615274</v>
+        <v>5.3086446902557558</v>
       </c>
       <c r="E142" s="11">
-        <v>18.921161825726141</v>
+        <v>29.618889809444905</v>
       </c>
       <c r="F142" s="11">
-        <v>47.800829875518673</v>
+        <v>60.604805302402653</v>
       </c>
       <c r="G142" s="11">
-        <v>75.435684647302907</v>
+        <v>87.199668599834297</v>
       </c>
       <c r="H142" s="11">
-        <v>88.38174273858921</v>
+        <v>96.354598177299096</v>
       </c>
       <c r="I142" s="11">
-        <v>95.352697095435687</v>
+        <v>99.420049710024855</v>
       </c>
       <c r="J142" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="143" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="6"/>
       <c r="B143" s="6"/>
       <c r="C143" s="15">
@@ -4519,7 +4529,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="144" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="6"/>
       <c r="B144" s="6"/>
       <c r="C144" s="15"/>
@@ -4531,7 +4541,7 @@
       <c r="I144" s="16"/>
       <c r="J144" s="17"/>
     </row>
-    <row r="145" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="6" t="s">
         <v>41</v>
       </c>
@@ -4542,28 +4552,28 @@
         <v>482</v>
       </c>
       <c r="D145" s="13">
-        <v>2.4395181698552486</v>
+        <v>2.4369280550078365</v>
       </c>
       <c r="E145" s="11">
-        <v>7.6763485477178426</v>
+        <v>9.7510373443983411</v>
       </c>
       <c r="F145" s="11">
-        <v>20.331950207468878</v>
+        <v>32.987551867219914</v>
       </c>
       <c r="G145" s="11">
-        <v>40.663900414937757</v>
+        <v>67.219917012448136</v>
       </c>
       <c r="H145" s="11">
-        <v>67.84232365145229</v>
+        <v>87.966804979253112</v>
       </c>
       <c r="I145" s="11">
-        <v>83.817427385892117</v>
+        <v>97.302904564315355</v>
       </c>
       <c r="J145" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="146" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="6"/>
       <c r="B146" s="6"/>
       <c r="C146" s="15">
@@ -4591,7 +4601,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="147" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="6" t="s">
         <v>20</v>
       </c>
@@ -4602,28 +4612,28 @@
         <v>236</v>
       </c>
       <c r="D147" s="13">
-        <v>0.91911048798535655</v>
+        <v>0.91850237409511948</v>
       </c>
       <c r="E147" s="11">
-        <v>15.677966101694915</v>
+        <v>24.152542372881356</v>
       </c>
       <c r="F147" s="11">
-        <v>38.559322033898304</v>
+        <v>55.508474576271183</v>
       </c>
       <c r="G147" s="11">
-        <v>65.254237288135599</v>
+        <v>84.745762711864401</v>
       </c>
       <c r="H147" s="11">
-        <v>85.593220338983059</v>
+        <v>95.33898305084746</v>
       </c>
       <c r="I147" s="11">
-        <v>94.491525423728817</v>
+        <v>99.576271186440678</v>
       </c>
       <c r="J147" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="148" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="6"/>
       <c r="B148" s="6"/>
       <c r="C148" s="15">
@@ -4651,7 +4661,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="149" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="6" t="s">
         <v>20</v>
       </c>
@@ -4662,28 +4672,28 @@
         <v>718</v>
       </c>
       <c r="D149" s="13">
-        <v>1.5802795201936832</v>
+        <v>1.5789589426692765</v>
       </c>
       <c r="E149" s="11">
-        <v>10.30640668523677</v>
+        <v>14.484679665738161</v>
       </c>
       <c r="F149" s="11">
-        <v>26.323119777158777</v>
+        <v>40.389972144846794</v>
       </c>
       <c r="G149" s="11">
-        <v>48.746518105849582</v>
+        <v>72.98050139275766</v>
       </c>
       <c r="H149" s="11">
-        <v>73.67688022284122</v>
+        <v>90.389972144846794</v>
       </c>
       <c r="I149" s="11">
-        <v>87.325905292479106</v>
+        <v>98.050139275766014</v>
       </c>
       <c r="J149" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="150" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="6"/>
       <c r="B150" s="6"/>
       <c r="C150" s="15">
@@ -4711,7 +4721,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="151" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="6"/>
       <c r="B151" s="6"/>
       <c r="C151" s="15"/>
@@ -4723,7 +4733,7 @@
       <c r="I151" s="16"/>
       <c r="J151" s="17"/>
     </row>
-    <row r="152" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="6" t="s">
         <v>42</v>
       </c>
@@ -4755,7 +4765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="6"/>
       <c r="B153" s="6"/>
       <c r="C153" s="15">
@@ -4783,7 +4793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="6" t="s">
         <v>20</v>
       </c>
@@ -4815,7 +4825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="6"/>
       <c r="B155" s="6"/>
       <c r="C155" s="15">
@@ -4843,7 +4853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="6" t="s">
         <v>20</v>
       </c>
@@ -4875,7 +4885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="6"/>
       <c r="B157" s="6"/>
       <c r="C157" s="15">
@@ -4903,7 +4913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="18"/>
       <c r="B158" s="18"/>
       <c r="C158" s="18"/>
@@ -4915,7 +4925,7 @@
       <c r="I158" s="18"/>
       <c r="J158" s="18"/>
     </row>
-    <row r="159" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="6" t="s">
         <v>43</v>
       </c>
@@ -4926,28 +4936,28 @@
         <v>328</v>
       </c>
       <c r="D159" s="13">
-        <v>1.6600870533454806</v>
+        <v>1.6583244855654988</v>
       </c>
       <c r="E159" s="11">
-        <v>14.02439024390244</v>
+        <v>17.682926829268293</v>
       </c>
       <c r="F159" s="11">
-        <v>31.707317073170731</v>
+        <v>43.597560975609753</v>
       </c>
       <c r="G159" s="11">
-        <v>50.914634146341463</v>
+        <v>73.780487804878049</v>
       </c>
       <c r="H159" s="11">
-        <v>64.634146341463421</v>
+        <v>89.329268292682926</v>
       </c>
       <c r="I159" s="11">
-        <v>79.268292682926827</v>
+        <v>94.817073170731703</v>
       </c>
       <c r="J159" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="160" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="6"/>
       <c r="B160" s="6"/>
       <c r="C160" s="15">
@@ -4975,7 +4985,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="161" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="6" t="s">
         <v>20</v>
       </c>
@@ -4986,28 +4996,28 @@
         <v>675</v>
       </c>
       <c r="D161" s="13">
-        <v>2.6288117770767614</v>
+        <v>2.6270724682805326</v>
       </c>
       <c r="E161" s="11">
-        <v>15.259259259259258</v>
+        <v>23.407407407407408</v>
       </c>
       <c r="F161" s="11">
-        <v>37.777777777777779</v>
+        <v>51.111111111111107</v>
       </c>
       <c r="G161" s="11">
-        <v>57.481481481481481</v>
+        <v>75.259259259259252</v>
       </c>
       <c r="H161" s="11">
-        <v>74.666666666666671</v>
+        <v>90.222222222222229</v>
       </c>
       <c r="I161" s="11">
-        <v>86.962962962962962</v>
+        <v>96.148148148148152</v>
       </c>
       <c r="J161" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="162" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="6"/>
       <c r="B162" s="6"/>
       <c r="C162" s="15">
@@ -5035,7 +5045,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="163" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="6" t="s">
         <v>20</v>
       </c>
@@ -5046,28 +5056,28 @@
         <v>1003</v>
       </c>
       <c r="D163" s="13">
-        <v>2.2075492461758559</v>
+        <v>2.2057044839795044</v>
       </c>
       <c r="E163" s="11">
-        <v>14.855433698903289</v>
+        <v>21.535393818544364</v>
       </c>
       <c r="F163" s="11">
-        <v>35.792622133599203</v>
+        <v>48.65403788634098</v>
       </c>
       <c r="G163" s="11">
-        <v>55.333998005982053</v>
+        <v>74.775672981056829</v>
       </c>
       <c r="H163" s="11">
-        <v>71.385842472582254</v>
+        <v>89.930209371884345</v>
       </c>
       <c r="I163" s="11">
-        <v>84.446660019940182</v>
+        <v>95.712861415752741</v>
       </c>
       <c r="J163" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="164" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="6"/>
       <c r="B164" s="6"/>
       <c r="C164" s="15">
@@ -5095,7 +5105,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="165" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="6"/>
       <c r="B165" s="6"/>
       <c r="C165" s="15"/>
@@ -5107,7 +5117,7 @@
       <c r="I165" s="16"/>
       <c r="J165" s="17"/>
     </row>
-    <row r="166" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="6" t="s">
         <v>44</v>
       </c>
@@ -5115,31 +5125,31 @@
         <v>19</v>
       </c>
       <c r="C166" s="9">
-        <v>2973</v>
+        <v>2975</v>
       </c>
       <c r="D166" s="13">
-        <v>15.047069541451563</v>
+        <v>15.041205318772436</v>
       </c>
       <c r="E166" s="11">
-        <v>30.911537167843928</v>
+        <v>39.193277310924366</v>
       </c>
       <c r="F166" s="11">
-        <v>46.686848301379079</v>
+        <v>59.226890756302517</v>
       </c>
       <c r="G166" s="11">
-        <v>62.092162798520015</v>
+        <v>77.411764705882362</v>
       </c>
       <c r="H166" s="11">
-        <v>75.109317188025557</v>
+        <v>88.840336134453779</v>
       </c>
       <c r="I166" s="11">
-        <v>85.771947527749745</v>
+        <v>97.210084033613441</v>
       </c>
       <c r="J166" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="167" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="6"/>
       <c r="B167" s="6"/>
       <c r="C167" s="15">
@@ -5167,7 +5177,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="168" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="6" t="s">
         <v>20</v>
       </c>
@@ -5178,28 +5188,28 @@
         <v>2171</v>
       </c>
       <c r="D168" s="13">
-        <v>8.4550375822720714</v>
+        <v>8.4494434498326463</v>
       </c>
       <c r="E168" s="11">
-        <v>36.987563334868724</v>
+        <v>46.982957162597884</v>
       </c>
       <c r="F168" s="11">
-        <v>55.642561031782591</v>
+        <v>69.599263012436666</v>
       </c>
       <c r="G168" s="11">
-        <v>71.349608475356973</v>
+        <v>85.122063565177342</v>
       </c>
       <c r="H168" s="11">
-        <v>83.095347766006441</v>
+        <v>93.50529709811147</v>
       </c>
       <c r="I168" s="11">
-        <v>91.156149239981573</v>
+        <v>98.341777982496552</v>
       </c>
       <c r="J168" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="169" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="6"/>
       <c r="B169" s="6"/>
       <c r="C169" s="15">
@@ -5227,7 +5237,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="170" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="6" t="s">
         <v>20</v>
       </c>
@@ -5235,31 +5245,31 @@
         <v>22</v>
       </c>
       <c r="C170" s="9">
-        <v>5144</v>
+        <v>5146</v>
       </c>
       <c r="D170" s="13">
-        <v>11.321668317376473</v>
+        <v>11.316605458183977</v>
       </c>
       <c r="E170" s="11">
-        <v>33.475894245723168</v>
+        <v>42.4795958025651</v>
       </c>
       <c r="F170" s="11">
-        <v>50.466562986003105</v>
+        <v>63.602798289933929</v>
       </c>
       <c r="G170" s="11">
-        <v>65.999222395023324</v>
+        <v>80.664593859308198</v>
       </c>
       <c r="H170" s="11">
-        <v>78.479782270606535</v>
+        <v>90.808394869801788</v>
       </c>
       <c r="I170" s="11">
-        <v>88.044323483670297</v>
+        <v>97.687524290711238</v>
       </c>
       <c r="J170" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="171" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="6"/>
       <c r="B171" s="6"/>
       <c r="C171" s="15">
@@ -5287,7 +5297,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="172" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="6"/>
       <c r="B172" s="6"/>
       <c r="C172" s="15"/>
@@ -5299,7 +5309,7 @@
       <c r="I172" s="16"/>
       <c r="J172" s="17"/>
     </row>
-    <row r="173" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="6" t="s">
         <v>45</v>
       </c>
@@ -5310,28 +5320,28 @@
         <v>485</v>
       </c>
       <c r="D173" s="13">
-        <v>2.45470189290414</v>
+        <v>2.4520956570099601</v>
       </c>
       <c r="E173" s="11">
-        <v>64.536082474226802</v>
+        <v>70.309278350515456</v>
       </c>
       <c r="F173" s="11">
-        <v>81.44329896907216</v>
+        <v>85.979381443298976</v>
       </c>
       <c r="G173" s="11">
-        <v>90.103092783505161</v>
+        <v>95.051546391752566</v>
       </c>
       <c r="H173" s="11">
-        <v>94.845360824742258</v>
+        <v>97.731958762886592</v>
       </c>
       <c r="I173" s="11">
-        <v>97.113402061855666</v>
+        <v>99.587628865979383</v>
       </c>
       <c r="J173" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="174" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="6"/>
       <c r="B174" s="6"/>
       <c r="C174" s="15">
@@ -5359,7 +5369,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="175" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="6" t="s">
         <v>20</v>
       </c>
@@ -5370,28 +5380,28 @@
         <v>190</v>
       </c>
       <c r="D175" s="13">
-        <v>0.73996183354753287</v>
+        <v>0.73947225033081654</v>
       </c>
       <c r="E175" s="11">
-        <v>59.473684210526315</v>
+        <v>70</v>
       </c>
       <c r="F175" s="11">
-        <v>79.473684210526315</v>
+        <v>87.368421052631589</v>
       </c>
       <c r="G175" s="11">
-        <v>90.526315789473685</v>
+        <v>96.315789473684205</v>
       </c>
       <c r="H175" s="11">
-        <v>96.315789473684205</v>
+        <v>98.421052631578945</v>
       </c>
       <c r="I175" s="11">
-        <v>99.473684210526315</v>
+        <v>100</v>
       </c>
       <c r="J175" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="176" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="6"/>
       <c r="B176" s="6"/>
       <c r="C176" s="15">
@@ -5419,7 +5429,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="177" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="6" t="s">
         <v>20</v>
       </c>
@@ -5430,28 +5440,28 @@
         <v>675</v>
       </c>
       <c r="D177" s="13">
-        <v>1.4856388246946188</v>
+        <v>1.4843973346821191</v>
       </c>
       <c r="E177" s="11">
-        <v>63.111111111111107</v>
+        <v>70.222222222222214</v>
       </c>
       <c r="F177" s="11">
-        <v>80.888888888888886</v>
+        <v>86.370370370370381</v>
       </c>
       <c r="G177" s="11">
-        <v>90.222222222222229</v>
+        <v>95.407407407407405</v>
       </c>
       <c r="H177" s="11">
-        <v>95.259259259259252</v>
+        <v>97.925925925925924</v>
       </c>
       <c r="I177" s="11">
-        <v>97.777777777777771</v>
+        <v>99.703703703703709</v>
       </c>
       <c r="J177" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="178" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="6"/>
       <c r="B178" s="6"/>
       <c r="C178" s="15">
@@ -5479,7 +5489,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="179" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="6"/>
       <c r="B179" s="6"/>
       <c r="C179" s="15"/>
@@ -5491,7 +5501,7 @@
       <c r="I179" s="16"/>
       <c r="J179" s="17"/>
     </row>
-    <row r="180" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="6" t="s">
         <v>46</v>
       </c>
@@ -5499,31 +5509,31 @@
         <v>19</v>
       </c>
       <c r="C180" s="9">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="D180" s="13">
-        <v>2.6014778823767588</v>
+        <v>2.6037716770311947</v>
       </c>
       <c r="E180" s="11">
-        <v>6.6147859922178993</v>
+        <v>13.009708737864079</v>
       </c>
       <c r="F180" s="11">
-        <v>28.793774319066145</v>
+        <v>40</v>
       </c>
       <c r="G180" s="11">
-        <v>57.58754863813229</v>
+        <v>74.951456310679603</v>
       </c>
       <c r="H180" s="11">
-        <v>87.743190661478593</v>
+        <v>94.757281553398059</v>
       </c>
       <c r="I180" s="11">
-        <v>97.276264591439684</v>
+        <v>99.22330097087378</v>
       </c>
       <c r="J180" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="181" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="6"/>
       <c r="B181" s="6"/>
       <c r="C181" s="15">
@@ -5551,7 +5561,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="182" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="6" t="s">
         <v>20</v>
       </c>
@@ -5562,28 +5572,28 @@
         <v>638</v>
       </c>
       <c r="D182" s="13">
-        <v>2.4847139463332941</v>
+        <v>2.4830699774266365</v>
       </c>
       <c r="E182" s="11">
-        <v>16.614420062695924</v>
+        <v>22.413793103448278</v>
       </c>
       <c r="F182" s="11">
-        <v>43.41692789968652</v>
+        <v>55.799373040752357</v>
       </c>
       <c r="G182" s="11">
-        <v>77.429467084639498</v>
+        <v>88.401253918495286</v>
       </c>
       <c r="H182" s="11">
-        <v>92.789968652037615</v>
+        <v>96.865203761755481</v>
       </c>
       <c r="I182" s="11">
-        <v>98.119122257053291</v>
+        <v>99.529780564263319</v>
       </c>
       <c r="J182" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="183" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="6"/>
       <c r="B183" s="6"/>
       <c r="C183" s="15">
@@ -5611,7 +5621,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="184" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="6" t="s">
         <v>20</v>
       </c>
@@ -5619,31 +5629,31 @@
         <v>22</v>
       </c>
       <c r="C184" s="9">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="D184" s="13">
-        <v>2.5354902608121495</v>
+        <v>2.5355705583533084</v>
       </c>
       <c r="E184" s="11">
-        <v>12.152777777777777</v>
+        <v>18.213356461405031</v>
       </c>
       <c r="F184" s="11">
-        <v>36.892361111111107</v>
+        <v>48.742411101474417</v>
       </c>
       <c r="G184" s="11">
-        <v>68.576388888888886</v>
+        <v>82.393755420641796</v>
       </c>
       <c r="H184" s="11">
-        <v>90.538194444444443</v>
+        <v>95.923677363399833</v>
       </c>
       <c r="I184" s="11">
-        <v>97.743055555555557</v>
+        <v>99.392888117953177</v>
       </c>
       <c r="J184" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="185" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="6"/>
       <c r="B185" s="6"/>
       <c r="C185" s="15">
@@ -5671,7 +5681,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="186" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="6"/>
       <c r="B186" s="6"/>
       <c r="C186" s="15"/>
@@ -5683,7 +5693,7 @@
       <c r="I186" s="16"/>
       <c r="J186" s="17"/>
     </row>
-    <row r="187" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="6" t="s">
         <v>47</v>
       </c>
@@ -5694,28 +5704,28 @@
         <v>198</v>
       </c>
       <c r="D187" s="13">
-        <v>1.0021257212268448</v>
+        <v>1.0010617321401487</v>
       </c>
       <c r="E187" s="11">
-        <v>24.242424242424242</v>
+        <v>28.28282828282828</v>
       </c>
       <c r="F187" s="11">
-        <v>49.494949494949495</v>
+        <v>59.090909090909093</v>
       </c>
       <c r="G187" s="11">
-        <v>78.282828282828291</v>
+        <v>83.333333333333343</v>
       </c>
       <c r="H187" s="11">
-        <v>89.898989898989896</v>
+        <v>94.949494949494948</v>
       </c>
       <c r="I187" s="11">
-        <v>97.474747474747474</v>
+        <v>99.494949494949495</v>
       </c>
       <c r="J187" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="188" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="6"/>
       <c r="B188" s="6"/>
       <c r="C188" s="15">
@@ -5743,7 +5753,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="189" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="6" t="s">
         <v>20</v>
       </c>
@@ -5754,28 +5764,28 @@
         <v>264</v>
       </c>
       <c r="D189" s="13">
-        <v>1.0281574950344665</v>
+        <v>1.0274772320386083</v>
       </c>
       <c r="E189" s="11">
-        <v>25.757575757575758</v>
+        <v>32.196969696969695</v>
       </c>
       <c r="F189" s="11">
-        <v>54.924242424242422</v>
+        <v>61.363636363636367</v>
       </c>
       <c r="G189" s="11">
-        <v>82.954545454545453</v>
+        <v>89.015151515151516</v>
       </c>
       <c r="H189" s="11">
-        <v>94.318181818181827</v>
+        <v>96.969696969696969</v>
       </c>
       <c r="I189" s="11">
-        <v>98.86363636363636</v>
+        <v>99.621212121212125</v>
       </c>
       <c r="J189" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="190" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="6"/>
       <c r="B190" s="6"/>
       <c r="C190" s="15">
@@ -5803,7 +5813,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="191" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="6" t="s">
         <v>20</v>
       </c>
@@ -5814,28 +5824,28 @@
         <v>462</v>
       </c>
       <c r="D191" s="13">
-        <v>1.0168372400132055</v>
+        <v>1.0159875090713171</v>
       </c>
       <c r="E191" s="11">
-        <v>25.108225108225106</v>
+        <v>30.519480519480517</v>
       </c>
       <c r="F191" s="11">
-        <v>52.597402597402599</v>
+        <v>60.389610389610397</v>
       </c>
       <c r="G191" s="11">
-        <v>80.952380952380949</v>
+        <v>86.580086580086572</v>
       </c>
       <c r="H191" s="11">
-        <v>92.424242424242422</v>
+        <v>96.103896103896105</v>
       </c>
       <c r="I191" s="11">
-        <v>98.268398268398272</v>
+        <v>99.567099567099575</v>
       </c>
       <c r="J191" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="192" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="6"/>
       <c r="B192" s="6"/>
       <c r="C192" s="15">
@@ -5863,7 +5873,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="193" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="6"/>
       <c r="B193" s="6"/>
       <c r="C193" s="15"/>
@@ -5875,7 +5885,7 @@
       <c r="I193" s="16"/>
       <c r="J193" s="17"/>
     </row>
-    <row r="194" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="6" t="s">
         <v>48</v>
       </c>
@@ -5907,7 +5917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="6"/>
       <c r="B195" s="6"/>
       <c r="C195" s="15">
@@ -5935,7 +5945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="6" t="s">
         <v>20</v>
       </c>
@@ -5946,7 +5956,7 @@
         <v>2</v>
       </c>
       <c r="D196" s="13">
-        <v>7.7890719320792929E-3</v>
+        <v>7.7839184245349106E-3</v>
       </c>
       <c r="E196" s="11">
         <v>50</v>
@@ -5967,7 +5977,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="197" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="6"/>
       <c r="B197" s="6"/>
       <c r="C197" s="15">
@@ -5995,7 +6005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="6" t="s">
         <v>20</v>
       </c>
@@ -6006,7 +6016,7 @@
         <v>2</v>
       </c>
       <c r="D198" s="13">
-        <v>4.4018928139099812E-3</v>
+        <v>4.3982143249840563E-3</v>
       </c>
       <c r="E198" s="11">
         <v>50</v>
@@ -6027,7 +6037,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="199" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="6"/>
       <c r="B199" s="6"/>
       <c r="C199" s="15">
@@ -6055,7 +6065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="6"/>
       <c r="B200" s="6"/>
       <c r="C200" s="15"/>
@@ -6067,7 +6077,7 @@
       <c r="I200" s="16"/>
       <c r="J200" s="17"/>
     </row>
-    <row r="201" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="6" t="s">
         <v>49</v>
       </c>
@@ -6078,28 +6088,28 @@
         <v>520</v>
       </c>
       <c r="D201" s="13">
-        <v>2.631845328474542</v>
+        <v>2.6290510137014005</v>
       </c>
       <c r="E201" s="11">
-        <v>9.0384615384615383</v>
+        <v>13.846153846153847</v>
       </c>
       <c r="F201" s="11">
-        <v>24.423076923076923</v>
+        <v>38.461538461538467</v>
       </c>
       <c r="G201" s="11">
-        <v>48.46153846153846</v>
+        <v>66.92307692307692</v>
       </c>
       <c r="H201" s="11">
-        <v>68.65384615384616</v>
+        <v>86.346153846153854</v>
       </c>
       <c r="I201" s="11">
-        <v>88.461538461538453</v>
+        <v>98.076923076923066</v>
       </c>
       <c r="J201" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="202" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="6"/>
       <c r="B202" s="6"/>
       <c r="C202" s="15">
@@ -6127,7 +6137,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="203" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="6" t="s">
         <v>20</v>
       </c>
@@ -6138,28 +6148,28 @@
         <v>463</v>
       </c>
       <c r="D203" s="13">
-        <v>1.8031701522763561</v>
+        <v>1.8019771152798318</v>
       </c>
       <c r="E203" s="11">
-        <v>20.734341252699785</v>
+        <v>32.6133909287257</v>
       </c>
       <c r="F203" s="11">
-        <v>46.004319654427647</v>
+        <v>59.827213822894166</v>
       </c>
       <c r="G203" s="11">
-        <v>68.250539956803465</v>
+        <v>83.36933045356372</v>
       </c>
       <c r="H203" s="11">
-        <v>88.120950323974085</v>
+        <v>95.464362850971924</v>
       </c>
       <c r="I203" s="11">
-        <v>96.976241900647949</v>
+        <v>99.784017278617711</v>
       </c>
       <c r="J203" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="204" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="6"/>
       <c r="B204" s="6"/>
       <c r="C204" s="15">
@@ -6187,7 +6197,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="205" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="6" t="s">
         <v>20</v>
       </c>
@@ -6198,28 +6208,28 @@
         <v>983</v>
       </c>
       <c r="D205" s="13">
-        <v>2.1635303180367558</v>
+        <v>2.1617223407296637</v>
       </c>
       <c r="E205" s="11">
-        <v>14.547304170905392</v>
+        <v>22.685656154628688</v>
       </c>
       <c r="F205" s="11">
-        <v>34.587995930824007</v>
+        <v>48.524923702950154</v>
       </c>
       <c r="G205" s="11">
-        <v>57.782299084435408</v>
+        <v>74.669379450661239</v>
       </c>
       <c r="H205" s="11">
-        <v>77.822990844354024</v>
+        <v>90.640895218718214</v>
       </c>
       <c r="I205" s="11">
-        <v>92.472024415055955</v>
+        <v>98.88097660223805</v>
       </c>
       <c r="J205" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="206" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="6"/>
       <c r="B206" s="6"/>
       <c r="C206" s="15">
@@ -6247,7 +6257,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="207" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="18"/>
       <c r="B207" s="18"/>
       <c r="C207" s="18"/>
@@ -6259,7 +6269,7 @@
       <c r="I207" s="18"/>
       <c r="J207" s="18"/>
     </row>
-    <row r="208" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="208" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="6" t="s">
         <v>50</v>
       </c>
@@ -6267,31 +6277,31 @@
         <v>19</v>
       </c>
       <c r="C208" s="9">
-        <v>2110</v>
+        <v>2112</v>
       </c>
       <c r="D208" s="13">
-        <v>10.679218544387084</v>
+        <v>10.67799180949492</v>
       </c>
       <c r="E208" s="11">
-        <v>23.270142180094787</v>
+        <v>31.912878787878789</v>
       </c>
       <c r="F208" s="11">
-        <v>39.763033175355453</v>
+        <v>53.598484848484851</v>
       </c>
       <c r="G208" s="11">
-        <v>58.009478672985779</v>
+        <v>75.568181818181827</v>
       </c>
       <c r="H208" s="11">
-        <v>73.69668246445498</v>
+        <v>89.0625</v>
       </c>
       <c r="I208" s="11">
-        <v>86.113744075829374</v>
+        <v>98.295454545454547</v>
       </c>
       <c r="J208" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="209" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="209" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="6"/>
       <c r="B209" s="6"/>
       <c r="C209" s="15">
@@ -6319,7 +6329,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="210" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="6" t="s">
         <v>20</v>
       </c>
@@ -6330,28 +6340,28 @@
         <v>694</v>
       </c>
       <c r="D210" s="13">
-        <v>2.7028079604315147</v>
+        <v>2.7010196933136141</v>
       </c>
       <c r="E210" s="11">
-        <v>33.285302593659942</v>
+        <v>41.786743515850148</v>
       </c>
       <c r="F210" s="11">
-        <v>53.602305475504316</v>
+        <v>67.435158501440924</v>
       </c>
       <c r="G210" s="11">
-        <v>70.317002881844388</v>
+        <v>84.005763688760808</v>
       </c>
       <c r="H210" s="11">
-        <v>83.429394812680115</v>
+        <v>94.236311239193085</v>
       </c>
       <c r="I210" s="11">
-        <v>92.21902017291066</v>
+        <v>98.414985590778102</v>
       </c>
       <c r="J210" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="211" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="211" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="6"/>
       <c r="B211" s="6"/>
       <c r="C211" s="15">
@@ -6379,7 +6389,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="212" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="212" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="6" t="s">
         <v>20</v>
       </c>
@@ -6387,31 +6397,31 @@
         <v>22</v>
       </c>
       <c r="C212" s="9">
-        <v>2804</v>
+        <v>2806</v>
       </c>
       <c r="D212" s="13">
-        <v>6.1714537251017934</v>
+        <v>6.1706946979526309</v>
       </c>
       <c r="E212" s="11">
-        <v>25.748930099857347</v>
+        <v>34.354953670705626</v>
       </c>
       <c r="F212" s="11">
-        <v>43.18830242510699</v>
+        <v>57.020669992872421</v>
       </c>
       <c r="G212" s="11">
-        <v>61.055634807417967</v>
+        <v>77.655024946543122</v>
       </c>
       <c r="H212" s="11">
-        <v>76.105563480741807</v>
+        <v>90.34212401995724</v>
       </c>
       <c r="I212" s="11">
-        <v>87.624821683309563</v>
+        <v>98.325017818959367</v>
       </c>
       <c r="J212" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="213" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="213" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="6"/>
       <c r="B213" s="6"/>
       <c r="C213" s="15">
@@ -6439,7 +6449,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="214" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="6"/>
       <c r="B214" s="6"/>
       <c r="C214" s="15"/>
@@ -6451,7 +6461,7 @@
       <c r="I214" s="16"/>
       <c r="J214" s="17"/>
     </row>
-    <row r="215" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="215" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="6" t="s">
         <v>51</v>
       </c>
@@ -6459,31 +6469,31 @@
         <v>19</v>
       </c>
       <c r="C215" s="9">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D215" s="13">
-        <v>1.4373924486284038</v>
+        <v>1.4409221902017291</v>
       </c>
       <c r="E215" s="11">
-        <v>18.661971830985916</v>
+        <v>27.017543859649123</v>
       </c>
       <c r="F215" s="11">
-        <v>40.845070422535215</v>
+        <v>56.140350877192979</v>
       </c>
       <c r="G215" s="11">
-        <v>65.845070422535215</v>
+        <v>78.596491228070178</v>
       </c>
       <c r="H215" s="11">
-        <v>83.802816901408448</v>
+        <v>93.333333333333329</v>
       </c>
       <c r="I215" s="11">
-        <v>94.366197183098592</v>
+        <v>99.298245614035082</v>
       </c>
       <c r="J215" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="216" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="216" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="6"/>
       <c r="B216" s="6"/>
       <c r="C216" s="15">
@@ -6511,7 +6521,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="217" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="217" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="6" t="s">
         <v>20</v>
       </c>
@@ -6522,28 +6532,28 @@
         <v>235</v>
       </c>
       <c r="D217" s="13">
-        <v>0.91521595201931694</v>
+        <v>0.91461041488285211</v>
       </c>
       <c r="E217" s="11">
-        <v>25.531914893617021</v>
+        <v>32.765957446808507</v>
       </c>
       <c r="F217" s="11">
-        <v>47.234042553191493</v>
+        <v>60.425531914893618</v>
       </c>
       <c r="G217" s="11">
-        <v>74.893617021276597</v>
+        <v>83.40425531914893</v>
       </c>
       <c r="H217" s="11">
-        <v>85.957446808510639</v>
+        <v>95.319148936170222</v>
       </c>
       <c r="I217" s="11">
-        <v>93.61702127659575</v>
+        <v>99.574468085106389</v>
       </c>
       <c r="J217" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="218" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="218" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="6"/>
       <c r="B218" s="6"/>
       <c r="C218" s="15">
@@ -6571,7 +6581,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="219" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="219" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="6" t="s">
         <v>20</v>
       </c>
@@ -6579,31 +6589,31 @@
         <v>22</v>
       </c>
       <c r="C219" s="9">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="D219" s="13">
-        <v>1.1422911852096402</v>
+        <v>1.1435357244958546</v>
       </c>
       <c r="E219" s="11">
-        <v>21.772639691714836</v>
+        <v>29.615384615384617</v>
       </c>
       <c r="F219" s="11">
-        <v>43.737957610789977</v>
+        <v>58.07692307692308</v>
       </c>
       <c r="G219" s="11">
-        <v>69.942196531791907</v>
+        <v>80.769230769230774</v>
       </c>
       <c r="H219" s="11">
-        <v>84.778420038535643</v>
+        <v>94.230769230769226</v>
       </c>
       <c r="I219" s="11">
-        <v>94.026974951830439</v>
+        <v>99.42307692307692</v>
       </c>
       <c r="J219" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="220" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="220" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="6"/>
       <c r="B220" s="6"/>
       <c r="C220" s="15">
@@ -6631,7 +6641,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="221" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="221" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="6"/>
       <c r="B221" s="6"/>
       <c r="C221" s="15"/>
@@ -6643,7 +6653,7 @@
       <c r="I221" s="16"/>
       <c r="J221" s="17"/>
     </row>
-    <row r="222" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="222" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="6" t="s">
         <v>52</v>
       </c>
@@ -6651,31 +6661,31 @@
         <v>19</v>
       </c>
       <c r="C222" s="9">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="D222" s="13">
-        <v>4.1502176333637006</v>
+        <v>4.1508670812477879</v>
       </c>
       <c r="E222" s="11">
-        <v>10.24390243902439</v>
+        <v>13.885505481120585</v>
       </c>
       <c r="F222" s="11">
-        <v>26.219512195121951</v>
+        <v>34.835566382460414</v>
       </c>
       <c r="G222" s="11">
-        <v>47.926829268292678</v>
+        <v>65.651644336175394</v>
       </c>
       <c r="H222" s="11">
-        <v>65.609756097560975</v>
+        <v>85.627283800243603</v>
       </c>
       <c r="I222" s="11">
-        <v>78.41463414634147</v>
+        <v>96.224116930572464</v>
       </c>
       <c r="J222" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="223" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="223" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="6"/>
       <c r="B223" s="6"/>
       <c r="C223" s="15">
@@ -6703,7 +6713,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="224" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="224" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="6" t="s">
         <v>20</v>
       </c>
@@ -6711,31 +6721,31 @@
         <v>21</v>
       </c>
       <c r="C224" s="9">
-        <v>2634</v>
+        <v>2636</v>
       </c>
       <c r="D224" s="13">
-        <v>10.258207734548428</v>
+        <v>10.259204483537014</v>
       </c>
       <c r="E224" s="11">
-        <v>16.62870159453303</v>
+        <v>24.317147192716238</v>
       </c>
       <c r="F224" s="11">
-        <v>39.863325740318906</v>
+        <v>52.352048558421849</v>
       </c>
       <c r="G224" s="11">
-        <v>65.223993925588459</v>
+        <v>79.855842185128978</v>
       </c>
       <c r="H224" s="11">
-        <v>80.334092634776013</v>
+        <v>93.057663125948409</v>
       </c>
       <c r="I224" s="11">
-        <v>89.635535307517088</v>
+        <v>98.17905918057663</v>
       </c>
       <c r="J224" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="225" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="225" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="6"/>
       <c r="B225" s="6"/>
       <c r="C225" s="15">
@@ -6763,7 +6773,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="226" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="226" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="6" t="s">
         <v>20</v>
       </c>
@@ -6771,31 +6781,31 @@
         <v>22</v>
       </c>
       <c r="C226" s="9">
-        <v>3454</v>
+        <v>3457</v>
       </c>
       <c r="D226" s="13">
-        <v>7.6020688896225375</v>
+        <v>7.6023134607349414</v>
       </c>
       <c r="E226" s="11">
-        <v>15.112912565141864</v>
+        <v>21.839745444026612</v>
       </c>
       <c r="F226" s="11">
-        <v>36.624203821656046</v>
+        <v>48.192074052646802</v>
       </c>
       <c r="G226" s="11">
-        <v>61.11754487550666</v>
+        <v>76.482499276829614</v>
       </c>
       <c r="H226" s="11">
-        <v>76.838448176027796</v>
+        <v>91.293028637546996</v>
       </c>
       <c r="I226" s="11">
-        <v>86.971627099015635</v>
+        <v>97.714781602545571</v>
       </c>
       <c r="J226" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="227" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="227" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="6"/>
       <c r="B227" s="6"/>
       <c r="C227" s="15">
@@ -6823,7 +6833,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="228" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="228" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="6"/>
       <c r="B228" s="6"/>
       <c r="C228" s="15"/>
@@ -6835,7 +6845,7 @@
       <c r="I228" s="16"/>
       <c r="J228" s="17"/>
     </row>
-    <row r="229" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="229" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="6" t="s">
         <v>53</v>
       </c>
@@ -6843,31 +6853,31 @@
         <v>19</v>
       </c>
       <c r="C229" s="9">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D229" s="13">
-        <v>1.3462901103350542</v>
+        <v>1.3499165781889884</v>
       </c>
       <c r="E229" s="11">
-        <v>15.037593984962406</v>
+        <v>20.224719101123593</v>
       </c>
       <c r="F229" s="11">
-        <v>36.84210526315789</v>
+        <v>46.441947565543074</v>
       </c>
       <c r="G229" s="11">
-        <v>60.902255639097746</v>
+        <v>79.026217228464418</v>
       </c>
       <c r="H229" s="11">
-        <v>80.075187969924812</v>
+        <v>93.258426966292134</v>
       </c>
       <c r="I229" s="11">
-        <v>92.10526315789474</v>
+        <v>98.12734082397003</v>
       </c>
       <c r="J229" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="230" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="230" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="6"/>
       <c r="B230" s="6"/>
       <c r="C230" s="15">
@@ -6895,7 +6905,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="231" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="231" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="6" t="s">
         <v>20</v>
       </c>
@@ -6903,31 +6913,31 @@
         <v>21</v>
       </c>
       <c r="C231" s="9">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="D231" s="13">
-        <v>4.0658955485453907</v>
+        <v>4.0670973768194907</v>
       </c>
       <c r="E231" s="11">
-        <v>22.31800766283525</v>
+        <v>31.291866028708132</v>
       </c>
       <c r="F231" s="11">
-        <v>49.233716475095783</v>
+        <v>60</v>
       </c>
       <c r="G231" s="11">
-        <v>72.222222222222214</v>
+        <v>85.933014354066984</v>
       </c>
       <c r="H231" s="11">
-        <v>87.643678160919535</v>
+        <v>95.78947368421052</v>
       </c>
       <c r="I231" s="11">
-        <v>95.88122605363985</v>
+        <v>99.52153110047847</v>
       </c>
       <c r="J231" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="232" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="232" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="6"/>
       <c r="B232" s="6"/>
       <c r="C232" s="15">
@@ -6955,7 +6965,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="233" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="233" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="6" t="s">
         <v>20</v>
       </c>
@@ -6963,31 +6973,31 @@
         <v>22</v>
       </c>
       <c r="C233" s="9">
-        <v>1310</v>
+        <v>1312</v>
       </c>
       <c r="D233" s="13">
-        <v>2.8832397931110378</v>
+        <v>2.8852285971895411</v>
       </c>
       <c r="E233" s="11">
-        <v>20.83969465648855</v>
+        <v>29.039634146341463</v>
       </c>
       <c r="F233" s="11">
-        <v>46.717557251908396</v>
+        <v>57.240853658536587</v>
       </c>
       <c r="G233" s="11">
-        <v>69.92366412213741</v>
+        <v>84.527439024390233</v>
       </c>
       <c r="H233" s="11">
-        <v>86.10687022900764</v>
+        <v>95.274390243902445</v>
       </c>
       <c r="I233" s="11">
-        <v>95.114503816793899</v>
+        <v>99.237804878048792</v>
       </c>
       <c r="J233" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="234" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="234" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="6"/>
       <c r="B234" s="6"/>
       <c r="C234" s="15">
@@ -7015,7 +7025,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="235" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="235" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="6"/>
       <c r="B235" s="6"/>
       <c r="C235" s="15"/>
@@ -7027,7 +7037,7 @@
       <c r="I235" s="16"/>
       <c r="J235" s="17"/>
     </row>
-    <row r="236" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="236" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="6" t="s">
         <v>54</v>
       </c>
@@ -7038,28 +7048,28 @@
         <v>406</v>
       </c>
       <c r="D236" s="13">
-        <v>2.0548638526166614</v>
+        <v>2.0526821376207085</v>
       </c>
       <c r="E236" s="11">
-        <v>12.315270935960591</v>
+        <v>15.517241379310345</v>
       </c>
       <c r="F236" s="11">
-        <v>25.615763546798032</v>
+        <v>36.206896551724135</v>
       </c>
       <c r="G236" s="11">
-        <v>52.216748768472911</v>
+        <v>70.197044334975374</v>
       </c>
       <c r="H236" s="11">
-        <v>71.921182266009851</v>
+        <v>89.901477832512313</v>
       </c>
       <c r="I236" s="11">
-        <v>83.497536945812811</v>
+        <v>96.059113300492612</v>
       </c>
       <c r="J236" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="237" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="237" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="6"/>
       <c r="B237" s="6"/>
       <c r="C237" s="15">
@@ -7087,7 +7097,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="238" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="238" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="6" t="s">
         <v>20</v>
       </c>
@@ -7095,31 +7105,31 @@
         <v>21</v>
       </c>
       <c r="C238" s="9">
-        <v>1637</v>
+        <v>1639</v>
       </c>
       <c r="D238" s="13">
-        <v>6.3753553764069011</v>
+        <v>6.3789211489063593</v>
       </c>
       <c r="E238" s="11">
-        <v>18.631643249847283</v>
+        <v>24.58816351433801</v>
       </c>
       <c r="F238" s="11">
-        <v>39.523518631643249</v>
+        <v>51.311775472849298</v>
       </c>
       <c r="G238" s="11">
-        <v>64.630421502748931</v>
+        <v>80.353874313605857</v>
       </c>
       <c r="H238" s="11">
-        <v>80.940745265730001</v>
+        <v>94.020744356314822</v>
       </c>
       <c r="I238" s="11">
-        <v>91.508857666463044</v>
+        <v>98.535692495424044</v>
       </c>
       <c r="J238" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="239" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="239" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="6"/>
       <c r="B239" s="6"/>
       <c r="C239" s="15">
@@ -7147,7 +7157,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="240" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="240" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="6" t="s">
         <v>20</v>
       </c>
@@ -7155,31 +7165,31 @@
         <v>22</v>
       </c>
       <c r="C240" s="9">
-        <v>2043</v>
+        <v>2045</v>
       </c>
       <c r="D240" s="13">
-        <v>4.4965335094090459</v>
+        <v>4.4971741472961977</v>
       </c>
       <c r="E240" s="11">
-        <v>17.376407244248654</v>
+        <v>22.787286063569681</v>
       </c>
       <c r="F240" s="11">
-        <v>36.759667156142925</v>
+        <v>48.312958435207825</v>
       </c>
       <c r="G240" s="11">
-        <v>62.163485070974055</v>
+        <v>78.337408312958431</v>
       </c>
       <c r="H240" s="11">
-        <v>79.148311306901618</v>
+        <v>93.202933985330077</v>
       </c>
       <c r="I240" s="11">
-        <v>89.916789035731767</v>
+        <v>98.044009779951097</v>
       </c>
       <c r="J240" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="241" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="241" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="6"/>
       <c r="B241" s="6"/>
       <c r="C241" s="15">
@@ -7207,7 +7217,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="242" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="242" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="6"/>
       <c r="B242" s="6"/>
       <c r="C242" s="15"/>
@@ -7219,7 +7229,7 @@
       <c r="I242" s="16"/>
       <c r="J242" s="17"/>
     </row>
-    <row r="243" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="243" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="6" t="s">
         <v>55</v>
       </c>
@@ -7230,28 +7240,28 @@
         <v>76</v>
       </c>
       <c r="D243" s="13">
-        <v>0.3846543172385869</v>
+        <v>0.38424591738712777</v>
       </c>
       <c r="E243" s="11">
-        <v>35.526315789473685</v>
+        <v>42.105263157894733</v>
       </c>
       <c r="F243" s="11">
-        <v>57.894736842105267</v>
+        <v>71.05263157894737</v>
       </c>
       <c r="G243" s="11">
-        <v>73.68421052631578</v>
+        <v>85.526315789473685</v>
       </c>
       <c r="H243" s="11">
-        <v>89.473684210526315</v>
+        <v>97.368421052631575</v>
       </c>
       <c r="I243" s="11">
-        <v>96.05263157894737</v>
+        <v>100</v>
       </c>
       <c r="J243" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="244" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="244" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="6"/>
       <c r="B244" s="6"/>
       <c r="C244" s="15">
@@ -7279,7 +7289,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="245" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="245" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="6" t="s">
         <v>20</v>
       </c>
@@ -7290,28 +7300,28 @@
         <v>177</v>
       </c>
       <c r="D245" s="13">
-        <v>0.68933286598901744</v>
+        <v>0.68887678057133961</v>
       </c>
       <c r="E245" s="11">
-        <v>32.7683615819209</v>
+        <v>40.677966101694921</v>
       </c>
       <c r="F245" s="11">
-        <v>62.711864406779661</v>
+        <v>74.011299435028249</v>
       </c>
       <c r="G245" s="11">
-        <v>83.615819209039543</v>
+        <v>89.830508474576277</v>
       </c>
       <c r="H245" s="11">
-        <v>93.78531073446328</v>
+        <v>98.870056497175142</v>
       </c>
       <c r="I245" s="11">
-        <v>97.740112994350284</v>
+        <v>100</v>
       </c>
       <c r="J245" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="246" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="246" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="6"/>
       <c r="B246" s="6"/>
       <c r="C246" s="15">
@@ -7339,7 +7349,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="247" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="247" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="6" t="s">
         <v>20</v>
       </c>
@@ -7350,28 +7360,28 @@
         <v>253</v>
       </c>
       <c r="D247" s="13">
-        <v>0.55683944095961257</v>
+        <v>0.55637411211048315</v>
       </c>
       <c r="E247" s="11">
-        <v>33.596837944664031</v>
+        <v>41.106719367588937</v>
       </c>
       <c r="F247" s="11">
-        <v>61.264822134387352</v>
+        <v>73.122529644268781</v>
       </c>
       <c r="G247" s="11">
-        <v>80.632411067193672</v>
+        <v>88.537549407114625</v>
       </c>
       <c r="H247" s="11">
-        <v>92.490118577075094</v>
+        <v>98.418972332015812</v>
       </c>
       <c r="I247" s="11">
-        <v>97.233201581027672</v>
+        <v>100</v>
       </c>
       <c r="J247" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="248" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="248" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="6"/>
       <c r="B248" s="6"/>
       <c r="C248" s="15">
@@ -7399,7 +7409,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="249" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="249" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="6"/>
       <c r="B249" s="6"/>
       <c r="C249" s="15"/>
@@ -7411,7 +7421,7 @@
       <c r="I249" s="16"/>
       <c r="J249" s="17"/>
     </row>
-    <row r="250" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="250" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="6" t="s">
         <v>56</v>
       </c>
@@ -7422,19 +7432,19 @@
         <v>68</v>
       </c>
       <c r="D250" s="13">
-        <v>0.34416438910820935</v>
+        <v>0.34379897871479853</v>
       </c>
       <c r="E250" s="11">
-        <v>19.117647058823529</v>
+        <v>22.058823529411764</v>
       </c>
       <c r="F250" s="11">
-        <v>58.82352941176471</v>
+        <v>64.705882352941174</v>
       </c>
       <c r="G250" s="11">
-        <v>82.35294117647058</v>
+        <v>95.588235294117652</v>
       </c>
       <c r="H250" s="11">
-        <v>95.588235294117652</v>
+        <v>98.529411764705884</v>
       </c>
       <c r="I250" s="11">
         <v>100</v>
@@ -7443,7 +7453,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="251" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="251" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="6"/>
       <c r="B251" s="6"/>
       <c r="C251" s="15">
@@ -7471,7 +7481,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="252" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="252" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="6" t="s">
         <v>20</v>
       </c>
@@ -7479,31 +7489,31 @@
         <v>21</v>
       </c>
       <c r="C252" s="9">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D252" s="13">
-        <v>0.83343069673248427</v>
+        <v>0.83677123063750292</v>
       </c>
       <c r="E252" s="11">
-        <v>32.710280373831772</v>
+        <v>34.883720930232556</v>
       </c>
       <c r="F252" s="11">
-        <v>65.887850467289724</v>
+        <v>74.418604651162795</v>
       </c>
       <c r="G252" s="11">
-        <v>90.654205607476641</v>
+        <v>94.883720930232556</v>
       </c>
       <c r="H252" s="11">
-        <v>98.130841121495322</v>
+        <v>98.604651162790702</v>
       </c>
       <c r="I252" s="11">
-        <v>99.532710280373834</v>
+        <v>99.534883720930239</v>
       </c>
       <c r="J252" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="253" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="253" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="6"/>
       <c r="B253" s="6"/>
       <c r="C253" s="15">
@@ -7531,7 +7541,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="254" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="254" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="6" t="s">
         <v>20</v>
       </c>
@@ -7539,31 +7549,31 @@
         <v>22</v>
       </c>
       <c r="C254" s="9">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D254" s="13">
-        <v>0.62066688676130732</v>
+        <v>0.62234732698524398</v>
       </c>
       <c r="E254" s="11">
-        <v>29.432624113475175</v>
+        <v>31.802120141342755</v>
       </c>
       <c r="F254" s="11">
-        <v>64.184397163120565</v>
+        <v>72.084805653710248</v>
       </c>
       <c r="G254" s="11">
-        <v>88.652482269503537</v>
+        <v>95.053003533568898</v>
       </c>
       <c r="H254" s="11">
-        <v>97.517730496453908</v>
+        <v>98.586572438162548</v>
       </c>
       <c r="I254" s="11">
-        <v>99.645390070921991</v>
+        <v>99.646643109540634</v>
       </c>
       <c r="J254" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="255" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="255" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="6"/>
       <c r="B255" s="6"/>
       <c r="C255" s="15">
@@ -7591,7 +7601,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="256" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="256" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="18"/>
       <c r="B256" s="18"/>
       <c r="C256" s="18"/>
@@ -7603,7 +7613,7 @@
       <c r="I256" s="18"/>
       <c r="J256" s="18"/>
     </row>
-    <row r="257" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="257" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="6" t="s">
         <v>57</v>
       </c>
@@ -7611,31 +7621,31 @@
         <v>19</v>
       </c>
       <c r="C257" s="9">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D257" s="13">
-        <v>0.5769814758578804</v>
+        <v>0.58142474341473283</v>
       </c>
       <c r="E257" s="11">
-        <v>11.403508771929824</v>
+        <v>16.521739130434781</v>
       </c>
       <c r="F257" s="11">
-        <v>37.719298245614034</v>
+        <v>44.347826086956523</v>
       </c>
       <c r="G257" s="11">
-        <v>62.280701754385973</v>
+        <v>72.173913043478265</v>
       </c>
       <c r="H257" s="11">
-        <v>78.94736842105263</v>
+        <v>88.695652173913047</v>
       </c>
       <c r="I257" s="11">
-        <v>85.087719298245617</v>
+        <v>95.652173913043484</v>
       </c>
       <c r="J257" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="258" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="258" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="6"/>
       <c r="B258" s="6"/>
       <c r="C258" s="15">
@@ -7663,7 +7673,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="259" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="259" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="6" t="s">
         <v>20</v>
       </c>
@@ -7674,28 +7684,28 @@
         <v>368</v>
       </c>
       <c r="D259" s="13">
-        <v>1.4331892355025899</v>
+        <v>1.4322409901144237</v>
       </c>
       <c r="E259" s="11">
-        <v>19.293478260869566</v>
+        <v>25.271739130434785</v>
       </c>
       <c r="F259" s="11">
-        <v>44.836956521739133</v>
+        <v>55.434782608695656</v>
       </c>
       <c r="G259" s="11">
-        <v>69.565217391304344</v>
+        <v>85.326086956521735</v>
       </c>
       <c r="H259" s="11">
-        <v>85.597826086956516</v>
+        <v>95.652173913043484</v>
       </c>
       <c r="I259" s="11">
-        <v>95.652173913043484</v>
+        <v>99.728260869565219</v>
       </c>
       <c r="J259" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="260" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="260" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="6"/>
       <c r="B260" s="6"/>
       <c r="C260" s="15">
@@ -7723,7 +7733,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="261" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="261" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="6" t="s">
         <v>20</v>
       </c>
@@ -7731,31 +7741,31 @@
         <v>22</v>
       </c>
       <c r="C261" s="9">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="D261" s="13">
-        <v>1.0608561681523057</v>
+        <v>1.0621687594836497</v>
       </c>
       <c r="E261" s="11">
-        <v>17.427385892116181</v>
+        <v>23.188405797101449</v>
       </c>
       <c r="F261" s="11">
-        <v>43.15352697095436</v>
+        <v>52.795031055900623</v>
       </c>
       <c r="G261" s="11">
-        <v>67.84232365145229</v>
+        <v>82.194616977225678</v>
       </c>
       <c r="H261" s="11">
-        <v>84.024896265560173</v>
+        <v>93.995859213250526</v>
       </c>
       <c r="I261" s="11">
-        <v>93.15352697095436</v>
+        <v>98.757763975155271</v>
       </c>
       <c r="J261" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="262" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="262" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="6"/>
       <c r="B262" s="6"/>
       <c r="C262" s="15">
@@ -7783,7 +7793,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="263" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="263" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="6"/>
       <c r="B263" s="6"/>
       <c r="C263" s="15"/>
@@ -7795,7 +7805,7 @@
       <c r="I263" s="16"/>
       <c r="J263" s="17"/>
     </row>
-    <row r="264" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="264" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="6" t="s">
         <v>58</v>
       </c>
@@ -7806,16 +7816,16 @@
         <v>11</v>
       </c>
       <c r="D264" s="13">
-        <v>5.567365117926916E-2</v>
+        <v>5.5614540674452706E-2</v>
       </c>
       <c r="E264" s="11">
-        <v>36.363636363636367</v>
+        <v>45.454545454545453</v>
       </c>
       <c r="F264" s="11">
         <v>45.454545454545453</v>
       </c>
       <c r="G264" s="11">
-        <v>72.727272727272734</v>
+        <v>81.818181818181827</v>
       </c>
       <c r="H264" s="11">
         <v>100</v>
@@ -7827,7 +7837,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="265" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="265" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="6"/>
       <c r="B265" s="6"/>
       <c r="C265" s="15">
@@ -7855,7 +7865,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="266" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="266" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="6" t="s">
         <v>20</v>
       </c>
@@ -7866,13 +7876,13 @@
         <v>7</v>
       </c>
       <c r="D266" s="13">
-        <v>2.7261751762277527E-2</v>
+        <v>2.7243714485872185E-2</v>
       </c>
       <c r="E266" s="11">
         <v>57.142857142857139</v>
       </c>
       <c r="F266" s="11">
-        <v>71.428571428571431</v>
+        <v>85.714285714285708</v>
       </c>
       <c r="G266" s="11">
         <v>100</v>
@@ -7887,7 +7897,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="267" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="267" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="6"/>
       <c r="B267" s="6"/>
       <c r="C267" s="15">
@@ -7915,7 +7925,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="268" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="268" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="6" t="s">
         <v>20</v>
       </c>
@@ -7926,16 +7936,16 @@
         <v>18</v>
       </c>
       <c r="D268" s="13">
-        <v>3.9617035325189835E-2</v>
+        <v>3.9583928924856508E-2</v>
       </c>
       <c r="E268" s="11">
-        <v>44.444444444444443</v>
+        <v>50</v>
       </c>
       <c r="F268" s="11">
-        <v>55.555555555555557</v>
+        <v>61.111111111111114</v>
       </c>
       <c r="G268" s="11">
-        <v>83.333333333333343</v>
+        <v>88.888888888888886</v>
       </c>
       <c r="H268" s="11">
         <v>100</v>
@@ -7947,7 +7957,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="269" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="269" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="6"/>
       <c r="B269" s="6"/>
       <c r="C269" s="15">
@@ -7975,7 +7985,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="270" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="270" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="6"/>
       <c r="B270" s="6"/>
       <c r="C270" s="15"/>
@@ -7987,7 +7997,7 @@
       <c r="I270" s="16"/>
       <c r="J270" s="17"/>
     </row>
-    <row r="271" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="271" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="6" t="s">
         <v>59</v>
       </c>
@@ -7998,28 +8008,28 @@
         <v>107</v>
       </c>
       <c r="D271" s="13">
-        <v>0.54155278874379997</v>
+        <v>0.54097780474240353</v>
       </c>
       <c r="E271" s="11">
-        <v>13.084112149532709</v>
+        <v>24.299065420560748</v>
       </c>
       <c r="F271" s="11">
-        <v>34.579439252336449</v>
+        <v>54.205607476635507</v>
       </c>
       <c r="G271" s="11">
-        <v>63.551401869158873</v>
+        <v>85.046728971962608</v>
       </c>
       <c r="H271" s="11">
-        <v>76.63551401869158</v>
+        <v>96.261682242990659</v>
       </c>
       <c r="I271" s="11">
-        <v>85.046728971962608</v>
+        <v>98.130841121495322</v>
       </c>
       <c r="J271" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="272" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="272" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="6"/>
       <c r="B272" s="6"/>
       <c r="C272" s="15">
@@ -8047,7 +8057,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="273" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="273" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="6" t="s">
         <v>20</v>
       </c>
@@ -8058,28 +8068,28 @@
         <v>28</v>
       </c>
       <c r="D273" s="13">
-        <v>0.10904700704911011</v>
+        <v>0.10897485794348874</v>
       </c>
       <c r="E273" s="11">
-        <v>28.571428571428569</v>
+        <v>46.428571428571431</v>
       </c>
       <c r="F273" s="11">
-        <v>57.142857142857139</v>
+        <v>64.285714285714292</v>
       </c>
       <c r="G273" s="11">
-        <v>78.571428571428569</v>
+        <v>89.285714285714292</v>
       </c>
       <c r="H273" s="11">
-        <v>89.285714285714292</v>
+        <v>100</v>
       </c>
       <c r="I273" s="11">
-        <v>96.428571428571431</v>
+        <v>100</v>
       </c>
       <c r="J273" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="274" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="274" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="6"/>
       <c r="B274" s="6"/>
       <c r="C274" s="15">
@@ -8107,7 +8117,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="275" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="275" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="6" t="s">
         <v>20</v>
       </c>
@@ -8118,28 +8128,28 @@
         <v>135</v>
       </c>
       <c r="D275" s="13">
-        <v>0.29712776493892373</v>
+        <v>0.29687946693642381</v>
       </c>
       <c r="E275" s="11">
-        <v>16.296296296296298</v>
+        <v>28.888888888888886</v>
       </c>
       <c r="F275" s="11">
-        <v>39.25925925925926</v>
+        <v>56.296296296296298</v>
       </c>
       <c r="G275" s="11">
-        <v>66.666666666666657</v>
+        <v>85.925925925925924</v>
       </c>
       <c r="H275" s="11">
-        <v>79.259259259259267</v>
+        <v>97.037037037037038</v>
       </c>
       <c r="I275" s="11">
-        <v>87.407407407407405</v>
+        <v>98.518518518518519</v>
       </c>
       <c r="J275" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="276" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="276" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="6"/>
       <c r="B276" s="6"/>
       <c r="C276" s="15">
@@ -8167,7 +8177,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="277" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="277" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="6"/>
       <c r="B277" s="6"/>
       <c r="C277" s="15"/>
@@ -8179,7 +8189,7 @@
       <c r="I277" s="16"/>
       <c r="J277" s="17"/>
     </row>
-    <row r="278" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="278" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="6" t="s">
         <v>60</v>
       </c>
@@ -8190,28 +8200,28 @@
         <v>50</v>
       </c>
       <c r="D278" s="13">
-        <v>0.25306205081485983</v>
+        <v>0.25279336670205771</v>
       </c>
       <c r="E278" s="11">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F278" s="11">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G278" s="11">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="H278" s="11">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="I278" s="11">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="J278" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="279" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="279" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="6"/>
       <c r="B279" s="6"/>
       <c r="C279" s="15">
@@ -8239,7 +8249,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="280" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="280" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="6" t="s">
         <v>20</v>
       </c>
@@ -8250,28 +8260,28 @@
         <v>28</v>
       </c>
       <c r="D280" s="13">
-        <v>0.10904700704911011</v>
+        <v>0.10897485794348874</v>
       </c>
       <c r="E280" s="11">
         <v>14.285714285714285</v>
       </c>
       <c r="F280" s="11">
-        <v>28.571428571428569</v>
+        <v>32.142857142857146</v>
       </c>
       <c r="G280" s="11">
         <v>42.857142857142854</v>
       </c>
       <c r="H280" s="11">
-        <v>64.285714285714292</v>
+        <v>78.571428571428569</v>
       </c>
       <c r="I280" s="11">
-        <v>82.142857142857139</v>
+        <v>96.428571428571431</v>
       </c>
       <c r="J280" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="281" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="281" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="6"/>
       <c r="B281" s="6"/>
       <c r="C281" s="15">
@@ -8299,7 +8309,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="282" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="282" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="6" t="s">
         <v>20</v>
       </c>
@@ -8310,28 +8320,28 @@
         <v>78</v>
       </c>
       <c r="D282" s="13">
-        <v>0.17167381974248927</v>
+        <v>0.17153035867437821</v>
       </c>
       <c r="E282" s="11">
-        <v>10.256410256410255</v>
+        <v>12.820512820512819</v>
       </c>
       <c r="F282" s="11">
-        <v>30.76923076923077</v>
+        <v>35.897435897435898</v>
       </c>
       <c r="G282" s="11">
-        <v>55.128205128205131</v>
+        <v>58.974358974358978</v>
       </c>
       <c r="H282" s="11">
-        <v>75.641025641025635</v>
+        <v>84.615384615384613</v>
       </c>
       <c r="I282" s="11">
-        <v>87.179487179487182</v>
+        <v>94.871794871794862</v>
       </c>
       <c r="J282" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="283" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="283" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="6"/>
       <c r="B283" s="6"/>
       <c r="C283" s="15">
@@ -8359,7 +8369,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="284" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="284" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="6"/>
       <c r="B284" s="6"/>
       <c r="C284" s="15"/>
@@ -8371,7 +8381,7 @@
       <c r="I284" s="16"/>
       <c r="J284" s="17"/>
     </row>
-    <row r="285" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="285" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="8" t="s">
         <v>61</v>
       </c>
@@ -8379,31 +8389,31 @@
         <v>19</v>
       </c>
       <c r="C285" s="10">
-        <v>19758</v>
+        <v>19779</v>
       </c>
       <c r="D285" s="14">
         <v>100</v>
       </c>
       <c r="E285" s="12">
-        <v>20.007085737422816</v>
+        <v>26.917437686435107</v>
       </c>
       <c r="F285" s="12">
-        <v>38.252859601174208</v>
+        <v>51.038980737145458</v>
       </c>
       <c r="G285" s="12">
-        <v>59.81374633060026</v>
+        <v>76.328429142019317</v>
       </c>
       <c r="H285" s="12">
-        <v>77.17886425751594</v>
+        <v>90.960109206734415</v>
       </c>
       <c r="I285" s="12">
-        <v>88.865269764146177</v>
+        <v>98.093938015066485</v>
       </c>
       <c r="J285" s="14">
         <v>100</v>
       </c>
     </row>
-    <row r="286" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="286" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" s="6"/>
       <c r="B286" s="6"/>
       <c r="C286" s="15">
@@ -8431,7 +8441,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="287" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="287" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="6" t="s">
         <v>20</v>
       </c>
@@ -8439,31 +8449,31 @@
         <v>21</v>
       </c>
       <c r="C287" s="9">
-        <v>25677</v>
+        <v>25694</v>
       </c>
       <c r="D287" s="13">
         <v>100</v>
       </c>
       <c r="E287" s="11">
-        <v>23.815087432332437</v>
+        <v>32.093095664357435</v>
       </c>
       <c r="F287" s="11">
-        <v>47.147252404875964</v>
+        <v>59.866116603097993</v>
       </c>
       <c r="G287" s="11">
-        <v>70.167854500136301</v>
+        <v>83.770530084844708</v>
       </c>
       <c r="H287" s="11">
-        <v>85.189079721151231</v>
+        <v>94.469525959367957</v>
       </c>
       <c r="I287" s="11">
-        <v>93.398761537562805</v>
+        <v>98.777924807348015</v>
       </c>
       <c r="J287" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="288" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="288" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="6"/>
       <c r="B288" s="6"/>
       <c r="C288" s="15">
@@ -8491,7 +8501,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="289" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="289" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="6" t="s">
         <v>20</v>
       </c>
@@ -8499,31 +8509,31 @@
         <v>22</v>
       </c>
       <c r="C289" s="9">
-        <v>45435</v>
+        <v>45473</v>
       </c>
       <c r="D289" s="13">
         <v>100</v>
       </c>
       <c r="E289" s="11">
-        <v>22.159128425222846</v>
+        <v>29.841884195016821</v>
       </c>
       <c r="F289" s="11">
-        <v>43.279410146362935</v>
+        <v>56.026653178809404</v>
       </c>
       <c r="G289" s="11">
-        <v>65.665236051502134</v>
+        <v>80.533503397620564</v>
       </c>
       <c r="H289" s="11">
-        <v>81.705733465390125</v>
+        <v>92.943065115563087</v>
       </c>
       <c r="I289" s="11">
-        <v>91.427313744910307</v>
+        <v>98.480416950718009</v>
       </c>
       <c r="J289" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="290" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="290" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" s="6"/>
       <c r="B290" s="6"/>
       <c r="C290" s="15">
@@ -8551,7 +8561,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="291" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="291" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="18"/>
       <c r="B291" s="18"/>
       <c r="C291" s="18"/>
@@ -8563,17 +8573,17 @@
       <c r="I291" s="18"/>
       <c r="J291" s="18"/>
     </row>
-    <row r="292" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="292" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="7" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="294" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="294" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="7" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="296" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="296" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="7" t="s">
         <v>64</v>
       </c>
@@ -8588,7 +8598,7 @@
     <mergeCell ref="A8:J8"/>
   </mergeCells>
   <pageMargins left="0.39370100000000002" right="0.39370100000000002" top="0.59" bottom="0.59" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" fitToHeight="0"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <rowBreaks count="5" manualBreakCount="5">
     <brk id="60" max="16383" man="1"/>
     <brk id="109" max="16383" man="1"/>
@@ -8802,7 +8812,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{32F5D33B-B26B-4300-B285-4844835638A7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{085A05E2-5124-4A82-9955-D7F015F53B2D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
@@ -8820,7 +8830,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{832A51C9-0A7F-4377-9B53-2B4AA270D847}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0989E8FA-6ECE-4055-9C1C-BD10B107D2B8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
@@ -8829,7 +8839,7 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3D19B85B-12E4-45C3-BB4E-EEECC637B174}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F967CB4-D837-4C81-8FA6-C0BCD99A5738}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
